--- a/teaching/traditional_assets/database/data/israel/israel_information_services.xlsx
+++ b/teaching/traditional_assets/database/data/israel/israel_information_services.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="earnings_debt" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_capital" sheetId="2" r:id="rId2"/>
+    <sheet name="tase_shva" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -590,23 +592,29 @@
           <t>Information Services</t>
         </is>
       </c>
+      <c r="D2">
+        <v>0.09960000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.0692</v>
+      </c>
       <c r="G2">
-        <v>0.1789516789516789</v>
+        <v>-0.1798561151079137</v>
       </c>
       <c r="H2">
-        <v>0.1146601146601147</v>
+        <v>-0.3093525179856115</v>
       </c>
       <c r="I2">
-        <v>0.1116539151952997</v>
+        <v>-0.5302158273381294</v>
       </c>
       <c r="J2">
-        <v>0.09966188885002764</v>
+        <v>-0.4661334508552098</v>
       </c>
       <c r="K2">
-        <v>0.2800000000000002</v>
+        <v>-19.73</v>
       </c>
       <c r="L2">
-        <v>0.01146601146601148</v>
+        <v>-0.7097122302158274</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -615,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -624,79 +632,79 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="U2">
-        <v>32.21</v>
+        <v>36.3</v>
       </c>
       <c r="V2">
-        <v>0.1326060107039934</v>
+        <v>0.0605</v>
       </c>
       <c r="W2">
-        <v>0.4579980856009845</v>
+        <v>-0.4530348405037568</v>
       </c>
       <c r="X2">
-        <v>0.08180452666039689</v>
+        <v>0.07347932526329783</v>
       </c>
       <c r="Y2">
-        <v>0.3761935589405876</v>
+        <v>-0.5265141657670546</v>
       </c>
       <c r="Z2">
-        <v>0.8345277995269634</v>
+        <v>0.6653901388224028</v>
       </c>
       <c r="AA2">
-        <v>2.76031431269718</v>
+        <v>-4.653604146488225</v>
       </c>
       <c r="AB2">
-        <v>0.08084940016869233</v>
+        <v>0.0714813480534093</v>
       </c>
       <c r="AC2">
-        <v>2.679464912528488</v>
+        <v>-4.725085494541634</v>
       </c>
       <c r="AD2">
-        <v>4.19</v>
+        <v>42.43</v>
       </c>
       <c r="AE2">
-        <v>0.2370569546539084</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.427056954653908</v>
+        <v>42.43</v>
       </c>
       <c r="AG2">
-        <v>-27.78294304534609</v>
+        <v>6.130000000000003</v>
       </c>
       <c r="AH2">
-        <v>0.0178996063316501</v>
+        <v>0.06604610619055773</v>
       </c>
       <c r="AI2">
-        <v>0.05964209193095778</v>
+        <v>0.3784000713457594</v>
       </c>
       <c r="AJ2">
-        <v>-0.1291526736125005</v>
+        <v>0.01011334202233845</v>
       </c>
       <c r="AK2">
-        <v>-0.6612301065096085</v>
+        <v>0.08083871818541477</v>
       </c>
       <c r="AL2">
-        <v>0.034</v>
+        <v>0.314</v>
       </c>
       <c r="AM2">
-        <v>-2.286</v>
+        <v>-0.2460000000000001</v>
       </c>
       <c r="AN2">
-        <v>1.038671294000991</v>
+        <v>-3.166417910447761</v>
       </c>
       <c r="AO2">
-        <v>77.35294117647055</v>
+        <v>-46.94267515923566</v>
       </c>
       <c r="AP2">
-        <v>-6.88719460717553</v>
+        <v>-0.4574626865671644</v>
       </c>
       <c r="AQ2">
-        <v>-1.150481189851268</v>
+        <v>59.91869918699185</v>
       </c>
     </row>
     <row r="3">
@@ -707,7 +715,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Splitit Payments Ltd (ASX:SPT)</t>
+          <t>Automatic Bank Services Limited (TASE:SHVA)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -715,23 +723,29 @@
           <t>Information Services</t>
         </is>
       </c>
+      <c r="D3">
+        <v>0.09960000000000001</v>
+      </c>
+      <c r="E3">
+        <v>0.0692</v>
+      </c>
       <c r="G3">
-        <v>-1.462121212121212</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="H3">
-        <v>-2.651515151515151</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="I3">
-        <v>-4.525311659796047</v>
+        <v>0.3754098360655738</v>
       </c>
       <c r="J3">
-        <v>-4.525311659796047</v>
+        <v>0.284665074367604</v>
       </c>
       <c r="K3">
-        <v>-7.25</v>
+        <v>6.87</v>
       </c>
       <c r="L3">
-        <v>-5.492424242424242</v>
+        <v>0.2815573770491803</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -740,7 +754,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -749,79 +763,79 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>23.7</v>
+        <v>10.6</v>
       </c>
       <c r="V3">
-        <v>0.1640138408304498</v>
+        <v>0.06941715782580223</v>
       </c>
       <c r="W3">
-        <v>0.703883495145631</v>
+        <v>0.1536912751677852</v>
       </c>
       <c r="X3">
-        <v>0.08128698691045701</v>
+        <v>0.07179709527284288</v>
       </c>
       <c r="Y3">
-        <v>0.622596508235174</v>
+        <v>0.08189417989494234</v>
       </c>
       <c r="Z3">
-        <v>-1.170271854989786</v>
+        <v>0.6214977075904227</v>
       </c>
       <c r="AA3">
-        <v>5.295844870516428</v>
+        <v>0.1769186911505231</v>
       </c>
       <c r="AB3">
-        <v>0.08084507626450972</v>
+        <v>0.07096907087621346</v>
       </c>
       <c r="AC3">
-        <v>5.214999794251919</v>
+        <v>0.1059496202743096</v>
       </c>
       <c r="AD3">
-        <v>1.12</v>
+        <v>2.73</v>
       </c>
       <c r="AE3">
-        <v>0.2370569546539084</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>1.357056954653908</v>
+        <v>2.73</v>
       </c>
       <c r="AG3">
-        <v>-22.34294304534609</v>
+        <v>-7.869999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.009304019860182764</v>
+        <v>0.01756417679984559</v>
       </c>
       <c r="AI3">
-        <v>0.05129281601426179</v>
+        <v>0.05015616388021311</v>
       </c>
       <c r="AJ3">
-        <v>-0.182903416326083</v>
+        <v>-0.05433957053096734</v>
       </c>
       <c r="AK3">
-        <v>-8.103910587567372</v>
+        <v>-0.1795573807894136</v>
       </c>
       <c r="AL3">
-        <v>0.034</v>
+        <v>0.116</v>
       </c>
       <c r="AM3">
-        <v>0.034</v>
+        <v>-0.4440000000000001</v>
       </c>
       <c r="AN3">
-        <v>-0.1915839890523435</v>
+        <v>0.2625</v>
       </c>
       <c r="AO3">
-        <v>-178.5294117647059</v>
+        <v>78.9655172413793</v>
       </c>
       <c r="AP3">
-        <v>3.821919781961356</v>
+        <v>-0.7567307692307691</v>
       </c>
       <c r="AQ3">
-        <v>-178.5294117647059</v>
+        <v>-20.63063063063063</v>
       </c>
     </row>
     <row r="4">
@@ -832,7 +846,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Automatic Bank Services Limited (TASE:SHVA)</t>
+          <t>Splitit Payments Ltd (ASX:SPT)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -841,22 +855,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>0.2727272727272727</v>
+        <v>-4.529411764705882</v>
       </c>
       <c r="H4">
-        <v>0.2727272727272727</v>
+        <v>-5.588235294117648</v>
       </c>
       <c r="I4">
-        <v>0.3766233766233766</v>
+        <v>-7.029411764705882</v>
       </c>
       <c r="J4">
-        <v>0.2957220047939547</v>
+        <v>-7.029411764705882</v>
       </c>
       <c r="K4">
-        <v>7.53</v>
+        <v>-26.6</v>
       </c>
       <c r="L4">
-        <v>0.325974025974026</v>
+        <v>-7.823529411764707</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -865,7 +879,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -874,76 +888,8797 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>8.51</v>
+        <v>25.7</v>
       </c>
       <c r="V4">
-        <v>0.08648373983739836</v>
+        <v>0.05745584618824055</v>
       </c>
       <c r="W4">
-        <v>0.212112676056338</v>
+        <v>-1.059760956175299</v>
       </c>
       <c r="X4">
-        <v>0.08232206641033678</v>
+        <v>0.07516155525375277</v>
       </c>
       <c r="Y4">
-        <v>0.1297906096460013</v>
+        <v>-1.134922511429052</v>
       </c>
       <c r="Z4">
-        <v>0.7601184600197434</v>
+        <v>1.349206349206348</v>
       </c>
       <c r="AA4">
-        <v>0.224783754877932</v>
+        <v>-9.484126984126972</v>
       </c>
       <c r="AB4">
-        <v>0.08085372407287494</v>
+        <v>0.07199362523060514</v>
       </c>
       <c r="AC4">
-        <v>0.1439300308050571</v>
+        <v>-9.556120609357578</v>
       </c>
       <c r="AD4">
-        <v>3.07</v>
+        <v>39.7</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>3.07</v>
+        <v>39.7</v>
       </c>
       <c r="AG4">
-        <v>-5.44</v>
+        <v>14</v>
       </c>
       <c r="AH4">
-        <v>0.03025524785650931</v>
+        <v>0.08151950718685833</v>
       </c>
       <c r="AI4">
-        <v>0.06426627590537994</v>
+        <v>0.6880415944540728</v>
       </c>
       <c r="AJ4">
-        <v>-0.05851979345955249</v>
+        <v>0.03034901365705615</v>
       </c>
       <c r="AK4">
-        <v>-0.1385634233316352</v>
+        <v>0.4375000000000001</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>0.198</v>
       </c>
       <c r="AM4">
-        <v>-2.32</v>
+        <v>0.198</v>
       </c>
       <c r="AN4">
-        <v>0.3107287449392712</v>
+        <v>-1.668067226890756</v>
+      </c>
+      <c r="AO4">
+        <v>-120.7070707070707</v>
       </c>
       <c r="AP4">
-        <v>-0.5506072874493926</v>
+        <v>-0.5882352941176472</v>
       </c>
       <c r="AQ4">
-        <v>-3.75</v>
+        <v>-120.7070707070707</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AQ2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>company_name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>exchange_ticker</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>industry_group</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>country</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_capital</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_capital</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>actual_equity_value</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_equity_value</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>actual_enterprise_value</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_enterprise_value</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_capital</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_capital</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>actual_debt_rating</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_debt_rating</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>actual_cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_cost_equity</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>actual_beta</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>optimal_beta</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>country_default_spread</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>risk_free</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>market_capitalization</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_risk_premium</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>marginal_tax_rate</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_max_percentage</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>deductions_method</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_ebitda</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_depreciation</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>reported_capital_spending</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>adjusted_debt</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>estimated_mv_debt</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>reported_interest_expense</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>reported_bv_debt</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>reported_cash</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>flag_bankruptcy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>flag_refinanced</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>rating_firm_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Automatic Bank Services Limited (TASE:SHVA)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TASE:SHVA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Information Services</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="E2">
+        <v>0.0175641767998456</v>
+      </c>
+      <c r="F2">
+        <v>0.54</v>
+      </c>
+      <c r="G2">
+        <v>152.7</v>
+      </c>
+      <c r="H2">
+        <v>79.6920422418489</v>
+      </c>
+      <c r="I2">
+        <v>144.83</v>
+      </c>
+      <c r="J2">
+        <v>153.024242241849</v>
+      </c>
+      <c r="K2">
+        <v>2.73</v>
+      </c>
+      <c r="L2">
+        <v>83.93219999999999</v>
+      </c>
+      <c r="M2">
+        <v>0.0709690708762135</v>
+      </c>
+      <c r="N2">
+        <v>0.0676667751210691</v>
+      </c>
+      <c r="O2">
+        <v>0.0246542996801282</v>
+      </c>
+      <c r="P2">
+        <v>0.017402</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="S2">
+        <v>0.07179709527284291</v>
+      </c>
+      <c r="T2">
+        <v>0.126673250263194</v>
+      </c>
+      <c r="U2">
+        <v>1.15703057339276</v>
+      </c>
+      <c r="V2">
+        <v>2.17297201510111</v>
+      </c>
+      <c r="W2">
+        <v>4.544333750378757</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0.009299999999999999</v>
+      </c>
+      <c r="AA2">
+        <v>152.7</v>
+      </c>
+      <c r="AB2">
+        <v>0.05401507679229468</v>
+      </c>
+      <c r="AC2">
+        <v>0.03201857101315345</v>
+      </c>
+      <c r="AD2">
+        <v>0.23</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+      <c r="AG2">
+        <v>10.4</v>
+      </c>
+      <c r="AH2">
+        <v>1.78</v>
+      </c>
+      <c r="AI2">
+        <v>2.98</v>
+      </c>
+      <c r="AJ2">
+        <v>2.73</v>
+      </c>
+      <c r="AK2">
+        <v>2.73</v>
+      </c>
+      <c r="AL2">
+        <v>0.116</v>
+      </c>
+      <c r="AM2">
+        <v>2.73</v>
+      </c>
+      <c r="AN2">
+        <v>10.6</v>
+      </c>
+      <c r="AO2" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="b">
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Z101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>debt_capital</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>cost_capital</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>equity_value</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>enterprise_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>debt_issued</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>debt</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>cash</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>marketcap</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>drop_ebitda</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>ebitda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>depreciation</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>ebit</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>interest_expense</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>taxable_income</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>taxes</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>net_income</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>operating_cash_flow</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>debt_equity</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>cost_equity</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>beta</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_pre_tax</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>tax_rate</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>cost_debt_after_tax</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>debt_rating</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_ratio</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>coverage_error</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.07094843014508916</v>
+      </c>
+      <c r="C2">
+        <v>155.4784910496779</v>
+      </c>
+      <c r="D2">
+        <v>144.8784910496779</v>
+      </c>
+      <c r="E2">
+        <v>-2.73</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>10.6</v>
+      </c>
+      <c r="H2">
+        <v>152.7</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>10.4</v>
+      </c>
+      <c r="K2">
+        <v>1.78</v>
+      </c>
+      <c r="L2">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="O2">
+        <v>1.9826</v>
+      </c>
+      <c r="P2">
+        <v>6.6374</v>
+      </c>
+      <c r="Q2">
+        <v>8.417400000000001</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0.07094843014508916</v>
+      </c>
+      <c r="T2">
+        <v>1.141318939194462</v>
+      </c>
+      <c r="U2">
+        <v>0.0162</v>
+      </c>
+      <c r="V2">
+        <v>0.23</v>
+      </c>
+      <c r="W2">
+        <v>0.012474</v>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y2">
+        <v>10000000</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>0.01</v>
+      </c>
+      <c r="B3">
+        <v>0.07083837875575547</v>
+      </c>
+      <c r="C3">
+        <v>154.1832826856124</v>
+      </c>
+      <c r="D3">
+        <v>145.1375826856124</v>
+      </c>
+      <c r="E3">
+        <v>-1.1757</v>
+      </c>
+      <c r="F3">
+        <v>1.5543</v>
+      </c>
+      <c r="G3">
+        <v>10.6</v>
+      </c>
+      <c r="H3">
+        <v>152.7</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>10.4</v>
+      </c>
+      <c r="K3">
+        <v>1.78</v>
+      </c>
+      <c r="L3">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.02517966</v>
+      </c>
+      <c r="N3">
+        <v>8.594820340000002</v>
+      </c>
+      <c r="O3">
+        <v>1.976808678200001</v>
+      </c>
+      <c r="P3">
+        <v>6.618011661800002</v>
+      </c>
+      <c r="Q3">
+        <v>8.398011661800002</v>
+      </c>
+      <c r="R3">
+        <v>0.0101010101010101</v>
+      </c>
+      <c r="S3">
+        <v>0.07142791793510653</v>
+      </c>
+      <c r="T3">
+        <v>1.150195864277086</v>
+      </c>
+      <c r="U3">
+        <v>0.0162</v>
+      </c>
+      <c r="V3">
+        <v>0.23</v>
+      </c>
+      <c r="W3">
+        <v>0.012474</v>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y3">
+        <v>342.3398091951997</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>0.02</v>
+      </c>
+      <c r="B4">
+        <v>0.07072832736642175</v>
+      </c>
+      <c r="C4">
+        <v>152.8890026683121</v>
+      </c>
+      <c r="D4">
+        <v>145.3976026683121</v>
+      </c>
+      <c r="E4">
+        <v>0.3785999999999996</v>
+      </c>
+      <c r="F4">
+        <v>3.1086</v>
+      </c>
+      <c r="G4">
+        <v>10.6</v>
+      </c>
+      <c r="H4">
+        <v>152.7</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>10.4</v>
+      </c>
+      <c r="K4">
+        <v>1.78</v>
+      </c>
+      <c r="L4">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.05035931999999999</v>
+      </c>
+      <c r="N4">
+        <v>8.569640680000001</v>
+      </c>
+      <c r="O4">
+        <v>1.9710173564</v>
+      </c>
+      <c r="P4">
+        <v>6.598623323600001</v>
+      </c>
+      <c r="Q4">
+        <v>8.378623323600001</v>
+      </c>
+      <c r="R4">
+        <v>0.02040816326530612</v>
+      </c>
+      <c r="S4">
+        <v>0.07191719119022628</v>
+      </c>
+      <c r="T4">
+        <v>1.159253951096089</v>
+      </c>
+      <c r="U4">
+        <v>0.0162</v>
+      </c>
+      <c r="V4">
+        <v>0.23</v>
+      </c>
+      <c r="W4">
+        <v>0.012474</v>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y4">
+        <v>171.1699045975999</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>0.03</v>
+      </c>
+      <c r="B5">
+        <v>0.07061827597708804</v>
+      </c>
+      <c r="C5">
+        <v>151.5956559962468</v>
+      </c>
+      <c r="D5">
+        <v>145.6585559962468</v>
+      </c>
+      <c r="E5">
+        <v>1.9329</v>
+      </c>
+      <c r="F5">
+        <v>4.6629</v>
+      </c>
+      <c r="G5">
+        <v>10.6</v>
+      </c>
+      <c r="H5">
+        <v>152.7</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>10.4</v>
+      </c>
+      <c r="K5">
+        <v>1.78</v>
+      </c>
+      <c r="L5">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0.07553897999999999</v>
+      </c>
+      <c r="N5">
+        <v>8.544461020000002</v>
+      </c>
+      <c r="O5">
+        <v>1.965226034600001</v>
+      </c>
+      <c r="P5">
+        <v>6.579234985400001</v>
+      </c>
+      <c r="Q5">
+        <v>8.359234985400001</v>
+      </c>
+      <c r="R5">
+        <v>0.03092783505154639</v>
+      </c>
+      <c r="S5">
+        <v>0.07241655255369903</v>
+      </c>
+      <c r="T5">
+        <v>1.168498802591773</v>
+      </c>
+      <c r="U5">
+        <v>0.0162</v>
+      </c>
+      <c r="V5">
+        <v>0.23</v>
+      </c>
+      <c r="W5">
+        <v>0.012474</v>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y5">
+        <v>114.1132697317332</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>0.04</v>
+      </c>
+      <c r="B6">
+        <v>0.07050822458775435</v>
+      </c>
+      <c r="C6">
+        <v>150.303247703835</v>
+      </c>
+      <c r="D6">
+        <v>145.920447703835</v>
+      </c>
+      <c r="E6">
+        <v>3.487199999999999</v>
+      </c>
+      <c r="F6">
+        <v>6.217199999999999</v>
+      </c>
+      <c r="G6">
+        <v>10.6</v>
+      </c>
+      <c r="H6">
+        <v>152.7</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>10.4</v>
+      </c>
+      <c r="K6">
+        <v>1.78</v>
+      </c>
+      <c r="L6">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M6">
+        <v>0.10071864</v>
+      </c>
+      <c r="N6">
+        <v>8.519281360000001</v>
+      </c>
+      <c r="O6">
+        <v>1.9594347128</v>
+      </c>
+      <c r="P6">
+        <v>6.559846647200001</v>
+      </c>
+      <c r="Q6">
+        <v>8.3398466472</v>
+      </c>
+      <c r="R6">
+        <v>0.04166666666666667</v>
+      </c>
+      <c r="S6">
+        <v>0.07292631727891077</v>
+      </c>
+      <c r="T6">
+        <v>1.177936255160284</v>
+      </c>
+      <c r="U6">
+        <v>0.0162</v>
+      </c>
+      <c r="V6">
+        <v>0.23</v>
+      </c>
+      <c r="W6">
+        <v>0.012474</v>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y6">
+        <v>85.58495229879992</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>0.05</v>
+      </c>
+      <c r="B7">
+        <v>0.07039817319842065</v>
+      </c>
+      <c r="C7">
+        <v>149.0117828617676</v>
+      </c>
+      <c r="D7">
+        <v>146.1832828617676</v>
+      </c>
+      <c r="E7">
+        <v>5.041499999999999</v>
+      </c>
+      <c r="F7">
+        <v>7.7715</v>
+      </c>
+      <c r="G7">
+        <v>10.6</v>
+      </c>
+      <c r="H7">
+        <v>152.7</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>10.4</v>
+      </c>
+      <c r="K7">
+        <v>1.78</v>
+      </c>
+      <c r="L7">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.1258983</v>
+      </c>
+      <c r="N7">
+        <v>8.494101700000002</v>
+      </c>
+      <c r="O7">
+        <v>1.953643391</v>
+      </c>
+      <c r="P7">
+        <v>6.540458309000002</v>
+      </c>
+      <c r="Q7">
+        <v>8.320458309000001</v>
+      </c>
+      <c r="R7">
+        <v>0.05263157894736843</v>
+      </c>
+      <c r="S7">
+        <v>0.07344681389307436</v>
+      </c>
+      <c r="T7">
+        <v>1.187572390940764</v>
+      </c>
+      <c r="U7">
+        <v>0.0162</v>
+      </c>
+      <c r="V7">
+        <v>0.23</v>
+      </c>
+      <c r="W7">
+        <v>0.012474</v>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y7">
+        <v>68.46796183903994</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>0.06</v>
+      </c>
+      <c r="B8">
+        <v>0.07028812180908692</v>
+      </c>
+      <c r="C8">
+        <v>147.7212665773354</v>
+      </c>
+      <c r="D8">
+        <v>146.4470665773354</v>
+      </c>
+      <c r="E8">
+        <v>6.595799999999999</v>
+      </c>
+      <c r="F8">
+        <v>9.325799999999999</v>
+      </c>
+      <c r="G8">
+        <v>10.6</v>
+      </c>
+      <c r="H8">
+        <v>152.7</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>10.4</v>
+      </c>
+      <c r="K8">
+        <v>1.78</v>
+      </c>
+      <c r="L8">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.15107796</v>
+      </c>
+      <c r="N8">
+        <v>8.468922040000001</v>
+      </c>
+      <c r="O8">
+        <v>1.9478520692</v>
+      </c>
+      <c r="P8">
+        <v>6.5210699708</v>
+      </c>
+      <c r="Q8">
+        <v>8.3010699708</v>
+      </c>
+      <c r="R8">
+        <v>0.06382978723404255</v>
+      </c>
+      <c r="S8">
+        <v>0.07397838490328396</v>
+      </c>
+      <c r="T8">
+        <v>1.197413550886785</v>
+      </c>
+      <c r="U8">
+        <v>0.0162</v>
+      </c>
+      <c r="V8">
+        <v>0.23</v>
+      </c>
+      <c r="W8">
+        <v>0.012474</v>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y8">
+        <v>57.05663486586661</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="B9">
+        <v>0.07017807041975323</v>
+      </c>
+      <c r="C9">
+        <v>146.4317039947593</v>
+      </c>
+      <c r="D9">
+        <v>146.7118039947594</v>
+      </c>
+      <c r="E9">
+        <v>8.150099999999998</v>
+      </c>
+      <c r="F9">
+        <v>10.8801</v>
+      </c>
+      <c r="G9">
+        <v>10.6</v>
+      </c>
+      <c r="H9">
+        <v>152.7</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>10.4</v>
+      </c>
+      <c r="K9">
+        <v>1.78</v>
+      </c>
+      <c r="L9">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M9">
+        <v>0.17625762</v>
+      </c>
+      <c r="N9">
+        <v>8.443742380000002</v>
+      </c>
+      <c r="O9">
+        <v>1.9420607474</v>
+      </c>
+      <c r="P9">
+        <v>6.501681632600001</v>
+      </c>
+      <c r="Q9">
+        <v>8.281681632600002</v>
+      </c>
+      <c r="R9">
+        <v>0.07526881720430109</v>
+      </c>
+      <c r="S9">
+        <v>0.07452138754812175</v>
+      </c>
+      <c r="T9">
+        <v>1.207466348681109</v>
+      </c>
+      <c r="U9">
+        <v>0.0162</v>
+      </c>
+      <c r="V9">
+        <v>0.23</v>
+      </c>
+      <c r="W9">
+        <v>0.012474</v>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y9">
+        <v>48.90568702788568</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>0.08</v>
+      </c>
+      <c r="B10">
+        <v>0.07006801903041952</v>
+      </c>
+      <c r="C10">
+        <v>145.1431002955256</v>
+      </c>
+      <c r="D10">
+        <v>146.9775002955257</v>
+      </c>
+      <c r="E10">
+        <v>9.704399999999998</v>
+      </c>
+      <c r="F10">
+        <v>12.4344</v>
+      </c>
+      <c r="G10">
+        <v>10.6</v>
+      </c>
+      <c r="H10">
+        <v>152.7</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>10.4</v>
+      </c>
+      <c r="K10">
+        <v>1.78</v>
+      </c>
+      <c r="L10">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.20143728</v>
+      </c>
+      <c r="N10">
+        <v>8.418562720000001</v>
+      </c>
+      <c r="O10">
+        <v>1.9362694256</v>
+      </c>
+      <c r="P10">
+        <v>6.482293294400001</v>
+      </c>
+      <c r="Q10">
+        <v>8.262293294400001</v>
+      </c>
+      <c r="R10">
+        <v>0.08695652173913043</v>
+      </c>
+      <c r="S10">
+        <v>0.07507619459828209</v>
+      </c>
+      <c r="T10">
+        <v>1.217737685557917</v>
+      </c>
+      <c r="U10">
+        <v>0.0162</v>
+      </c>
+      <c r="V10">
+        <v>0.23</v>
+      </c>
+      <c r="W10">
+        <v>0.012474</v>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y10">
+        <v>42.79247614939996</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>0.09</v>
+      </c>
+      <c r="B11">
+        <v>0.06995796764108582</v>
+      </c>
+      <c r="C11">
+        <v>143.8554606987232</v>
+      </c>
+      <c r="D11">
+        <v>147.2441606987232</v>
+      </c>
+      <c r="E11">
+        <v>11.2587</v>
+      </c>
+      <c r="F11">
+        <v>13.9887</v>
+      </c>
+      <c r="G11">
+        <v>10.6</v>
+      </c>
+      <c r="H11">
+        <v>152.7</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>10.4</v>
+      </c>
+      <c r="K11">
+        <v>1.78</v>
+      </c>
+      <c r="L11">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M11">
+        <v>0.22661694</v>
+      </c>
+      <c r="N11">
+        <v>8.393383060000001</v>
+      </c>
+      <c r="O11">
+        <v>1.930478103800001</v>
+      </c>
+      <c r="P11">
+        <v>6.462904956200001</v>
+      </c>
+      <c r="Q11">
+        <v>8.2429049562</v>
+      </c>
+      <c r="R11">
+        <v>0.0989010989010989</v>
+      </c>
+      <c r="S11">
+        <v>0.07564319520998442</v>
+      </c>
+      <c r="T11">
+        <v>1.228234766102348</v>
+      </c>
+      <c r="U11">
+        <v>0.0162</v>
+      </c>
+      <c r="V11">
+        <v>0.23</v>
+      </c>
+      <c r="W11">
+        <v>0.012474</v>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y11">
+        <v>38.03775657724442</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v>0.1</v>
+      </c>
+      <c r="B12">
+        <v>0.06984791625175212</v>
+      </c>
+      <c r="C12">
+        <v>142.5687904613858</v>
+      </c>
+      <c r="D12">
+        <v>147.5117904613858</v>
+      </c>
+      <c r="E12">
+        <v>12.813</v>
+      </c>
+      <c r="F12">
+        <v>15.543</v>
+      </c>
+      <c r="G12">
+        <v>10.6</v>
+      </c>
+      <c r="H12">
+        <v>152.7</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>10.4</v>
+      </c>
+      <c r="K12">
+        <v>1.78</v>
+      </c>
+      <c r="L12">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M12">
+        <v>0.2517966</v>
+      </c>
+      <c r="N12">
+        <v>8.368203400000001</v>
+      </c>
+      <c r="O12">
+        <v>1.924686782</v>
+      </c>
+      <c r="P12">
+        <v>6.443516618</v>
+      </c>
+      <c r="Q12">
+        <v>8.223516618</v>
+      </c>
+      <c r="R12">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S12">
+        <v>0.07622279583528013</v>
+      </c>
+      <c r="T12">
+        <v>1.238965115103321</v>
+      </c>
+      <c r="U12">
+        <v>0.0162</v>
+      </c>
+      <c r="V12">
+        <v>0.23</v>
+      </c>
+      <c r="W12">
+        <v>0.012474</v>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y12">
+        <v>34.23398091951996</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>0.11</v>
+      </c>
+      <c r="B13">
+        <v>0.06973786486241841</v>
+      </c>
+      <c r="C13">
+        <v>141.2830948788372</v>
+      </c>
+      <c r="D13">
+        <v>147.7803948788372</v>
+      </c>
+      <c r="E13">
+        <v>14.3673</v>
+      </c>
+      <c r="F13">
+        <v>17.0973</v>
+      </c>
+      <c r="G13">
+        <v>10.6</v>
+      </c>
+      <c r="H13">
+        <v>152.7</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>10.4</v>
+      </c>
+      <c r="K13">
+        <v>1.78</v>
+      </c>
+      <c r="L13">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M13">
+        <v>0.2769762599999999</v>
+      </c>
+      <c r="N13">
+        <v>8.343023740000001</v>
+      </c>
+      <c r="O13">
+        <v>1.9188954602</v>
+      </c>
+      <c r="P13">
+        <v>6.424128279800001</v>
+      </c>
+      <c r="Q13">
+        <v>8.204128279800001</v>
+      </c>
+      <c r="R13">
+        <v>0.1235955056179775</v>
+      </c>
+      <c r="S13">
+        <v>0.07681542119372856</v>
+      </c>
+      <c r="T13">
+        <v>1.249936595542519</v>
+      </c>
+      <c r="U13">
+        <v>0.0162</v>
+      </c>
+      <c r="V13">
+        <v>0.23</v>
+      </c>
+      <c r="W13">
+        <v>0.012474</v>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y13">
+        <v>31.12180083592725</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>0.12</v>
+      </c>
+      <c r="B14">
+        <v>0.06962781347308471</v>
+      </c>
+      <c r="C14">
+        <v>139.9983792850408</v>
+      </c>
+      <c r="D14">
+        <v>148.0499792850408</v>
+      </c>
+      <c r="E14">
+        <v>15.9216</v>
+      </c>
+      <c r="F14">
+        <v>18.6516</v>
+      </c>
+      <c r="G14">
+        <v>10.6</v>
+      </c>
+      <c r="H14">
+        <v>152.7</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>10.4</v>
+      </c>
+      <c r="K14">
+        <v>1.78</v>
+      </c>
+      <c r="L14">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M14">
+        <v>0.30215592</v>
+      </c>
+      <c r="N14">
+        <v>8.31784408</v>
+      </c>
+      <c r="O14">
+        <v>1.9131041384</v>
+      </c>
+      <c r="P14">
+        <v>6.4047399416</v>
+      </c>
+      <c r="Q14">
+        <v>8.1847399416</v>
+      </c>
+      <c r="R14">
+        <v>0.1363636363636364</v>
+      </c>
+      <c r="S14">
+        <v>0.07742151531032353</v>
+      </c>
+      <c r="T14">
+        <v>1.26115742780988</v>
+      </c>
+      <c r="U14">
+        <v>0.0162</v>
+      </c>
+      <c r="V14">
+        <v>0.23</v>
+      </c>
+      <c r="W14">
+        <v>0.012474</v>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y14">
+        <v>28.52831743293331</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>0.13</v>
+      </c>
+      <c r="B15">
+        <v>0.06951776208375099</v>
+      </c>
+      <c r="C15">
+        <v>138.7146490529522</v>
+      </c>
+      <c r="D15">
+        <v>148.3205490529522</v>
+      </c>
+      <c r="E15">
+        <v>17.4759</v>
+      </c>
+      <c r="F15">
+        <v>20.2059</v>
+      </c>
+      <c r="G15">
+        <v>10.6</v>
+      </c>
+      <c r="H15">
+        <v>152.7</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>10.4</v>
+      </c>
+      <c r="K15">
+        <v>1.78</v>
+      </c>
+      <c r="L15">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M15">
+        <v>0.3273355799999999</v>
+      </c>
+      <c r="N15">
+        <v>8.292664420000001</v>
+      </c>
+      <c r="O15">
+        <v>1.9073128166</v>
+      </c>
+      <c r="P15">
+        <v>6.385351603400001</v>
+      </c>
+      <c r="Q15">
+        <v>8.165351603400001</v>
+      </c>
+      <c r="R15">
+        <v>0.1494252873563219</v>
+      </c>
+      <c r="S15">
+        <v>0.07804154262500114</v>
+      </c>
+      <c r="T15">
+        <v>1.272636210244307</v>
+      </c>
+      <c r="U15">
+        <v>0.0162</v>
+      </c>
+      <c r="V15">
+        <v>0.23</v>
+      </c>
+      <c r="W15">
+        <v>0.012474</v>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y15">
+        <v>26.33383147655383</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>0.14</v>
+      </c>
+      <c r="B16">
+        <v>0.06940771069441729</v>
+      </c>
+      <c r="C16">
+        <v>137.4319095948767</v>
+      </c>
+      <c r="D16">
+        <v>148.5921095948767</v>
+      </c>
+      <c r="E16">
+        <v>19.0302</v>
+      </c>
+      <c r="F16">
+        <v>21.7602</v>
+      </c>
+      <c r="G16">
+        <v>10.6</v>
+      </c>
+      <c r="H16">
+        <v>152.7</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>10.4</v>
+      </c>
+      <c r="K16">
+        <v>1.78</v>
+      </c>
+      <c r="L16">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M16">
+        <v>0.35251524</v>
+      </c>
+      <c r="N16">
+        <v>8.26748476</v>
+      </c>
+      <c r="O16">
+        <v>1.9015214948</v>
+      </c>
+      <c r="P16">
+        <v>6.3659632652</v>
+      </c>
+      <c r="Q16">
+        <v>8.145963265200001</v>
+      </c>
+      <c r="R16">
+        <v>0.1627906976744186</v>
+      </c>
+      <c r="S16">
+        <v>0.07867598917955498</v>
+      </c>
+      <c r="T16">
+        <v>1.284381941107442</v>
+      </c>
+      <c r="U16">
+        <v>0.0162</v>
+      </c>
+      <c r="V16">
+        <v>0.23</v>
+      </c>
+      <c r="W16">
+        <v>0.012474</v>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y16">
+        <v>24.45284351394283</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>0.15</v>
+      </c>
+      <c r="B17">
+        <v>0.06929765930508359</v>
+      </c>
+      <c r="C17">
+        <v>136.1501663628297</v>
+      </c>
+      <c r="D17">
+        <v>148.8646663628297</v>
+      </c>
+      <c r="E17">
+        <v>20.58449999999999</v>
+      </c>
+      <c r="F17">
+        <v>23.3145</v>
+      </c>
+      <c r="G17">
+        <v>10.6</v>
+      </c>
+      <c r="H17">
+        <v>152.7</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>10.4</v>
+      </c>
+      <c r="K17">
+        <v>1.78</v>
+      </c>
+      <c r="L17">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M17">
+        <v>0.3776948999999999</v>
+      </c>
+      <c r="N17">
+        <v>8.242305100000001</v>
+      </c>
+      <c r="O17">
+        <v>1.895730173</v>
+      </c>
+      <c r="P17">
+        <v>6.346574927000001</v>
+      </c>
+      <c r="Q17">
+        <v>8.126574927</v>
+      </c>
+      <c r="R17">
+        <v>0.1764705882352941</v>
+      </c>
+      <c r="S17">
+        <v>0.07932536388833364</v>
+      </c>
+      <c r="T17">
+        <v>1.296404042108533</v>
+      </c>
+      <c r="U17">
+        <v>0.0162</v>
+      </c>
+      <c r="V17">
+        <v>0.23</v>
+      </c>
+      <c r="W17">
+        <v>0.012474</v>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y17">
+        <v>22.82265394634665</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v>0.16</v>
+      </c>
+      <c r="B18">
+        <v>0.06918760791574989</v>
+      </c>
+      <c r="C18">
+        <v>134.8694248489021</v>
+      </c>
+      <c r="D18">
+        <v>149.1382248489021</v>
+      </c>
+      <c r="E18">
+        <v>22.1388</v>
+      </c>
+      <c r="F18">
+        <v>24.8688</v>
+      </c>
+      <c r="G18">
+        <v>10.6</v>
+      </c>
+      <c r="H18">
+        <v>152.7</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>10.4</v>
+      </c>
+      <c r="K18">
+        <v>1.78</v>
+      </c>
+      <c r="L18">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.4028745599999999</v>
+      </c>
+      <c r="N18">
+        <v>8.21712544</v>
+      </c>
+      <c r="O18">
+        <v>1.8899388512</v>
+      </c>
+      <c r="P18">
+        <v>6.3271865888</v>
+      </c>
+      <c r="Q18">
+        <v>8.107186588799999</v>
+      </c>
+      <c r="R18">
+        <v>0.1904761904761905</v>
+      </c>
+      <c r="S18">
+        <v>0.07999019989970226</v>
+      </c>
+      <c r="T18">
+        <v>1.30871238360965</v>
+      </c>
+      <c r="U18">
+        <v>0.0162</v>
+      </c>
+      <c r="V18">
+        <v>0.23</v>
+      </c>
+      <c r="W18">
+        <v>0.012474</v>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y18">
+        <v>21.39623807469998</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v>0.17</v>
+      </c>
+      <c r="B19">
+        <v>0.06907755652641617</v>
+      </c>
+      <c r="C19">
+        <v>133.5896905856286</v>
+      </c>
+      <c r="D19">
+        <v>149.4127905856286</v>
+      </c>
+      <c r="E19">
+        <v>23.6931</v>
+      </c>
+      <c r="F19">
+        <v>26.4231</v>
+      </c>
+      <c r="G19">
+        <v>10.6</v>
+      </c>
+      <c r="H19">
+        <v>152.7</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>10.4</v>
+      </c>
+      <c r="K19">
+        <v>1.78</v>
+      </c>
+      <c r="L19">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M19">
+        <v>0.4280542199999999</v>
+      </c>
+      <c r="N19">
+        <v>8.191945780000001</v>
+      </c>
+      <c r="O19">
+        <v>1.8841475294</v>
+      </c>
+      <c r="P19">
+        <v>6.307798250600001</v>
+      </c>
+      <c r="Q19">
+        <v>8.087798250600001</v>
+      </c>
+      <c r="R19">
+        <v>0.2048192771084338</v>
+      </c>
+      <c r="S19">
+        <v>0.0806710560559231</v>
+      </c>
+      <c r="T19">
+        <v>1.321317311652962</v>
+      </c>
+      <c r="U19">
+        <v>0.0162</v>
+      </c>
+      <c r="V19">
+        <v>0.23</v>
+      </c>
+      <c r="W19">
+        <v>0.012474</v>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y19">
+        <v>20.13763583501175</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v>0.18</v>
+      </c>
+      <c r="B20">
+        <v>0.06896750513708247</v>
+      </c>
+      <c r="C20">
+        <v>132.3109691463611</v>
+      </c>
+      <c r="D20">
+        <v>149.6883691463611</v>
+      </c>
+      <c r="E20">
+        <v>25.2474</v>
+      </c>
+      <c r="F20">
+        <v>27.9774</v>
+      </c>
+      <c r="G20">
+        <v>10.6</v>
+      </c>
+      <c r="H20">
+        <v>152.7</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>10.4</v>
+      </c>
+      <c r="K20">
+        <v>1.78</v>
+      </c>
+      <c r="L20">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M20">
+        <v>0.4532338799999999</v>
+      </c>
+      <c r="N20">
+        <v>8.166766120000002</v>
+      </c>
+      <c r="O20">
+        <v>1.8783562076</v>
+      </c>
+      <c r="P20">
+        <v>6.288409912400001</v>
+      </c>
+      <c r="Q20">
+        <v>8.068409912400002</v>
+      </c>
+      <c r="R20">
+        <v>0.2195121951219512</v>
+      </c>
+      <c r="S20">
+        <v>0.08136851845985667</v>
+      </c>
+      <c r="T20">
+        <v>1.334229676965623</v>
+      </c>
+      <c r="U20">
+        <v>0.0162</v>
+      </c>
+      <c r="V20">
+        <v>0.23</v>
+      </c>
+      <c r="W20">
+        <v>0.012474</v>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y20">
+        <v>19.01887828862221</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v>0.19</v>
+      </c>
+      <c r="B21">
+        <v>0.06885745374774876</v>
+      </c>
+      <c r="C21">
+        <v>131.0332661456455</v>
+      </c>
+      <c r="D21">
+        <v>149.9649661456455</v>
+      </c>
+      <c r="E21">
+        <v>26.8017</v>
+      </c>
+      <c r="F21">
+        <v>29.5317</v>
+      </c>
+      <c r="G21">
+        <v>10.6</v>
+      </c>
+      <c r="H21">
+        <v>152.7</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>10.4</v>
+      </c>
+      <c r="K21">
+        <v>1.78</v>
+      </c>
+      <c r="L21">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M21">
+        <v>0.4784135399999999</v>
+      </c>
+      <c r="N21">
+        <v>8.141586460000001</v>
+      </c>
+      <c r="O21">
+        <v>1.8725648858</v>
+      </c>
+      <c r="P21">
+        <v>6.269021574200001</v>
+      </c>
+      <c r="Q21">
+        <v>8.049021574200001</v>
+      </c>
+      <c r="R21">
+        <v>0.2345679012345679</v>
+      </c>
+      <c r="S21">
+        <v>0.08208320215771453</v>
+      </c>
+      <c r="T21">
+        <v>1.347460866113165</v>
+      </c>
+      <c r="U21">
+        <v>0.0162</v>
+      </c>
+      <c r="V21">
+        <v>0.23</v>
+      </c>
+      <c r="W21">
+        <v>0.012474</v>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y21">
+        <v>18.0178846944842</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v>0.2</v>
+      </c>
+      <c r="B22">
+        <v>0.06874740235841506</v>
+      </c>
+      <c r="C22">
+        <v>129.7565872396036</v>
+      </c>
+      <c r="D22">
+        <v>150.2425872396036</v>
+      </c>
+      <c r="E22">
+        <v>28.356</v>
+      </c>
+      <c r="F22">
+        <v>31.086</v>
+      </c>
+      <c r="G22">
+        <v>10.6</v>
+      </c>
+      <c r="H22">
+        <v>152.7</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>10.4</v>
+      </c>
+      <c r="K22">
+        <v>1.78</v>
+      </c>
+      <c r="L22">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M22">
+        <v>0.5035932</v>
+      </c>
+      <c r="N22">
+        <v>8.116406800000002</v>
+      </c>
+      <c r="O22">
+        <v>1.866773564</v>
+      </c>
+      <c r="P22">
+        <v>6.249633236000001</v>
+      </c>
+      <c r="Q22">
+        <v>8.029633236</v>
+      </c>
+      <c r="R22">
+        <v>0.25</v>
+      </c>
+      <c r="S22">
+        <v>0.08281575294801882</v>
+      </c>
+      <c r="T22">
+        <v>1.361022834989396</v>
+      </c>
+      <c r="U22">
+        <v>0.0162</v>
+      </c>
+      <c r="V22">
+        <v>0.23</v>
+      </c>
+      <c r="W22">
+        <v>0.012474</v>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y22">
+        <v>17.11699045975999</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v>0.21</v>
+      </c>
+      <c r="B23">
+        <v>0.06863735096908137</v>
+      </c>
+      <c r="C23">
+        <v>128.4809381263179</v>
+      </c>
+      <c r="D23">
+        <v>150.5212381263179</v>
+      </c>
+      <c r="E23">
+        <v>29.9103</v>
+      </c>
+      <c r="F23">
+        <v>32.6403</v>
+      </c>
+      <c r="G23">
+        <v>10.6</v>
+      </c>
+      <c r="H23">
+        <v>152.7</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>10.4</v>
+      </c>
+      <c r="K23">
+        <v>1.78</v>
+      </c>
+      <c r="L23">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M23">
+        <v>0.5287728599999999</v>
+      </c>
+      <c r="N23">
+        <v>8.091227140000001</v>
+      </c>
+      <c r="O23">
+        <v>1.8609822422</v>
+      </c>
+      <c r="P23">
+        <v>6.2302448978</v>
+      </c>
+      <c r="Q23">
+        <v>8.0102448978</v>
+      </c>
+      <c r="R23">
+        <v>0.2658227848101266</v>
+      </c>
+      <c r="S23">
+        <v>0.0835668493279511</v>
+      </c>
+      <c r="T23">
+        <v>1.374928144849835</v>
+      </c>
+      <c r="U23">
+        <v>0.0162</v>
+      </c>
+      <c r="V23">
+        <v>0.23</v>
+      </c>
+      <c r="W23">
+        <v>0.012474</v>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y23">
+        <v>16.30189567596189</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24">
+        <v>0.22</v>
+      </c>
+      <c r="B24">
+        <v>0.06852729957974765</v>
+      </c>
+      <c r="C24">
+        <v>127.2063245462217</v>
+      </c>
+      <c r="D24">
+        <v>150.8009245462217</v>
+      </c>
+      <c r="E24">
+        <v>31.46459999999999</v>
+      </c>
+      <c r="F24">
+        <v>34.19459999999999</v>
+      </c>
+      <c r="G24">
+        <v>10.6</v>
+      </c>
+      <c r="H24">
+        <v>152.7</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>10.4</v>
+      </c>
+      <c r="K24">
+        <v>1.78</v>
+      </c>
+      <c r="L24">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M24">
+        <v>0.5539525199999998</v>
+      </c>
+      <c r="N24">
+        <v>8.066047480000002</v>
+      </c>
+      <c r="O24">
+        <v>1.855190920400001</v>
+      </c>
+      <c r="P24">
+        <v>6.210856559600002</v>
+      </c>
+      <c r="Q24">
+        <v>7.990856559600002</v>
+      </c>
+      <c r="R24">
+        <v>0.282051282051282</v>
+      </c>
+      <c r="S24">
+        <v>0.08433720458942007</v>
+      </c>
+      <c r="T24">
+        <v>1.389190001116951</v>
+      </c>
+      <c r="U24">
+        <v>0.0162</v>
+      </c>
+      <c r="V24">
+        <v>0.23</v>
+      </c>
+      <c r="W24">
+        <v>0.012474</v>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y24">
+        <v>15.56090041796363</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25">
+        <v>0.23</v>
+      </c>
+      <c r="B25">
+        <v>0.06841724819041395</v>
+      </c>
+      <c r="C25">
+        <v>125.9327522824936</v>
+      </c>
+      <c r="D25">
+        <v>151.0816522824936</v>
+      </c>
+      <c r="E25">
+        <v>33.0189</v>
+      </c>
+      <c r="F25">
+        <v>35.7489</v>
+      </c>
+      <c r="G25">
+        <v>10.6</v>
+      </c>
+      <c r="H25">
+        <v>152.7</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>10.4</v>
+      </c>
+      <c r="K25">
+        <v>1.78</v>
+      </c>
+      <c r="L25">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M25">
+        <v>0.57913218</v>
+      </c>
+      <c r="N25">
+        <v>8.040867820000001</v>
+      </c>
+      <c r="O25">
+        <v>1.8493995986</v>
+      </c>
+      <c r="P25">
+        <v>6.191468221400001</v>
+      </c>
+      <c r="Q25">
+        <v>7.971468221400001</v>
+      </c>
+      <c r="R25">
+        <v>0.2987012987012987</v>
+      </c>
+      <c r="S25">
+        <v>0.08512756907845967</v>
+      </c>
+      <c r="T25">
+        <v>1.403822295209188</v>
+      </c>
+      <c r="U25">
+        <v>0.0162</v>
+      </c>
+      <c r="V25">
+        <v>0.23</v>
+      </c>
+      <c r="W25">
+        <v>0.012474</v>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y25">
+        <v>14.88433953022607</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26">
+        <v>0.24</v>
+      </c>
+      <c r="B26">
+        <v>0.06830719680108024</v>
+      </c>
+      <c r="C26">
+        <v>124.6602271614557</v>
+      </c>
+      <c r="D26">
+        <v>151.3634271614557</v>
+      </c>
+      <c r="E26">
+        <v>34.5732</v>
+      </c>
+      <c r="F26">
+        <v>37.3032</v>
+      </c>
+      <c r="G26">
+        <v>10.6</v>
+      </c>
+      <c r="H26">
+        <v>152.7</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>10.4</v>
+      </c>
+      <c r="K26">
+        <v>1.78</v>
+      </c>
+      <c r="L26">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M26">
+        <v>0.6043118399999999</v>
+      </c>
+      <c r="N26">
+        <v>8.015688160000002</v>
+      </c>
+      <c r="O26">
+        <v>1.8436082768</v>
+      </c>
+      <c r="P26">
+        <v>6.172079883200001</v>
+      </c>
+      <c r="Q26">
+        <v>7.952079883200001</v>
+      </c>
+      <c r="R26">
+        <v>0.3157894736842105</v>
+      </c>
+      <c r="S26">
+        <v>0.08593873263300032</v>
+      </c>
+      <c r="T26">
+        <v>1.418839649672273</v>
+      </c>
+      <c r="U26">
+        <v>0.0162</v>
+      </c>
+      <c r="V26">
+        <v>0.23</v>
+      </c>
+      <c r="W26">
+        <v>0.012474</v>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>Aaa/AAA</t>
+        </is>
+      </c>
+      <c r="Y26">
+        <v>14.26415871646666</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27">
+        <v>0.25</v>
+      </c>
+      <c r="B27">
+        <v>0.06850514541174653</v>
+      </c>
+      <c r="C27">
+        <v>122.5998532399423</v>
+      </c>
+      <c r="D27">
+        <v>150.8573532399423</v>
+      </c>
+      <c r="E27">
+        <v>36.1275</v>
+      </c>
+      <c r="F27">
+        <v>38.85749999999999</v>
+      </c>
+      <c r="G27">
+        <v>10.6</v>
+      </c>
+      <c r="H27">
+        <v>152.7</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>10.4</v>
+      </c>
+      <c r="K27">
+        <v>1.78</v>
+      </c>
+      <c r="L27">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M27">
+        <v>0.6916634999999999</v>
+      </c>
+      <c r="N27">
+        <v>7.928336500000001</v>
+      </c>
+      <c r="O27">
+        <v>1.823517395</v>
+      </c>
+      <c r="P27">
+        <v>6.104819105000001</v>
+      </c>
+      <c r="Q27">
+        <v>7.884819105000001</v>
+      </c>
+      <c r="R27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="S27">
+        <v>0.08677152721566204</v>
+      </c>
+      <c r="T27">
+        <v>1.43425746692104</v>
+      </c>
+      <c r="U27">
+        <v>0.0178</v>
+      </c>
+      <c r="V27">
+        <v>0.23</v>
+      </c>
+      <c r="W27">
+        <v>0.013706</v>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y27">
+        <v>12.46270766058929</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28">
+        <v>0.26</v>
+      </c>
+      <c r="B28">
+        <v>0.06840741402241282</v>
+      </c>
+      <c r="C28">
+        <v>121.2949889320156</v>
+      </c>
+      <c r="D28">
+        <v>151.1067889320156</v>
+      </c>
+      <c r="E28">
+        <v>37.6818</v>
+      </c>
+      <c r="F28">
+        <v>40.41179999999999</v>
+      </c>
+      <c r="G28">
+        <v>10.6</v>
+      </c>
+      <c r="H28">
+        <v>152.7</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>10.4</v>
+      </c>
+      <c r="K28">
+        <v>1.78</v>
+      </c>
+      <c r="L28">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M28">
+        <v>0.7193300399999999</v>
+      </c>
+      <c r="N28">
+        <v>7.900669960000001</v>
+      </c>
+      <c r="O28">
+        <v>1.8171540908</v>
+      </c>
+      <c r="P28">
+        <v>6.083515869200001</v>
+      </c>
+      <c r="Q28">
+        <v>7.863515869200001</v>
+      </c>
+      <c r="R28">
+        <v>0.3513513513513514</v>
+      </c>
+      <c r="S28">
+        <v>0.08762682976001734</v>
+      </c>
+      <c r="T28">
+        <v>1.450091981933288</v>
+      </c>
+      <c r="U28">
+        <v>0.0178</v>
+      </c>
+      <c r="V28">
+        <v>0.23</v>
+      </c>
+      <c r="W28">
+        <v>0.013706</v>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y28">
+        <v>11.98337275056663</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29">
+        <v>0.27</v>
+      </c>
+      <c r="B29">
+        <v>0.06830968263307913</v>
+      </c>
+      <c r="C29">
+        <v>119.990950851096</v>
+      </c>
+      <c r="D29">
+        <v>151.357050851096</v>
+      </c>
+      <c r="E29">
+        <v>39.2361</v>
+      </c>
+      <c r="F29">
+        <v>41.9661</v>
+      </c>
+      <c r="G29">
+        <v>10.6</v>
+      </c>
+      <c r="H29">
+        <v>152.7</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>10.4</v>
+      </c>
+      <c r="K29">
+        <v>1.78</v>
+      </c>
+      <c r="L29">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M29">
+        <v>0.7469965799999999</v>
+      </c>
+      <c r="N29">
+        <v>7.873003420000001</v>
+      </c>
+      <c r="O29">
+        <v>1.8107907866</v>
+      </c>
+      <c r="P29">
+        <v>6.062212633400001</v>
+      </c>
+      <c r="Q29">
+        <v>7.842212633400001</v>
+      </c>
+      <c r="R29">
+        <v>0.3698630136986302</v>
+      </c>
+      <c r="S29">
+        <v>0.08850556525079332</v>
+      </c>
+      <c r="T29">
+        <v>1.466360319274638</v>
+      </c>
+      <c r="U29">
+        <v>0.0178</v>
+      </c>
+      <c r="V29">
+        <v>0.23</v>
+      </c>
+      <c r="W29">
+        <v>0.013706</v>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y29">
+        <v>11.53954413017527</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30">
+        <v>0.28</v>
+      </c>
+      <c r="B30">
+        <v>0.06821195124374542</v>
+      </c>
+      <c r="C30">
+        <v>118.6877431091665</v>
+      </c>
+      <c r="D30">
+        <v>151.6081431091665</v>
+      </c>
+      <c r="E30">
+        <v>40.7904</v>
+      </c>
+      <c r="F30">
+        <v>43.5204</v>
+      </c>
+      <c r="G30">
+        <v>10.6</v>
+      </c>
+      <c r="H30">
+        <v>152.7</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>10.4</v>
+      </c>
+      <c r="K30">
+        <v>1.78</v>
+      </c>
+      <c r="L30">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M30">
+        <v>0.7746631199999999</v>
+      </c>
+      <c r="N30">
+        <v>7.845336880000001</v>
+      </c>
+      <c r="O30">
+        <v>1.8044274824</v>
+      </c>
+      <c r="P30">
+        <v>6.040909397600001</v>
+      </c>
+      <c r="Q30">
+        <v>7.820909397600001</v>
+      </c>
+      <c r="R30">
+        <v>0.388888888888889</v>
+      </c>
+      <c r="S30">
+        <v>0.08940871006075754</v>
+      </c>
+      <c r="T30">
+        <v>1.48308055487547</v>
+      </c>
+      <c r="U30">
+        <v>0.0178</v>
+      </c>
+      <c r="V30">
+        <v>0.23</v>
+      </c>
+      <c r="W30">
+        <v>0.013706</v>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y30">
+        <v>11.12741755409758</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31">
+        <v>0.29</v>
+      </c>
+      <c r="B31">
+        <v>0.06811421985441171</v>
+      </c>
+      <c r="C31">
+        <v>117.3853698455415</v>
+      </c>
+      <c r="D31">
+        <v>151.8600698455415</v>
+      </c>
+      <c r="E31">
+        <v>42.3447</v>
+      </c>
+      <c r="F31">
+        <v>45.07469999999999</v>
+      </c>
+      <c r="G31">
+        <v>10.6</v>
+      </c>
+      <c r="H31">
+        <v>152.7</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>10.4</v>
+      </c>
+      <c r="K31">
+        <v>1.78</v>
+      </c>
+      <c r="L31">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M31">
+        <v>0.8023296599999998</v>
+      </c>
+      <c r="N31">
+        <v>7.817670340000001</v>
+      </c>
+      <c r="O31">
+        <v>1.7980641782</v>
+      </c>
+      <c r="P31">
+        <v>6.019606161800001</v>
+      </c>
+      <c r="Q31">
+        <v>7.799606161800001</v>
+      </c>
+      <c r="R31">
+        <v>0.4084507042253521</v>
+      </c>
+      <c r="S31">
+        <v>0.09033729556959397</v>
+      </c>
+      <c r="T31">
+        <v>1.500271783028438</v>
+      </c>
+      <c r="U31">
+        <v>0.0178</v>
+      </c>
+      <c r="V31">
+        <v>0.23</v>
+      </c>
+      <c r="W31">
+        <v>0.013706</v>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>Aa2/AA</t>
+        </is>
+      </c>
+      <c r="Y31">
+        <v>10.74371350050801</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32">
+        <v>0.3</v>
+      </c>
+      <c r="B32">
+        <v>0.06852468846507802</v>
+      </c>
+      <c r="C32">
+        <v>114.7785730996625</v>
+      </c>
+      <c r="D32">
+        <v>150.8075730996625</v>
+      </c>
+      <c r="E32">
+        <v>43.89899999999999</v>
+      </c>
+      <c r="F32">
+        <v>46.62899999999999</v>
+      </c>
+      <c r="G32">
+        <v>10.6</v>
+      </c>
+      <c r="H32">
+        <v>152.7</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>10.4</v>
+      </c>
+      <c r="K32">
+        <v>1.78</v>
+      </c>
+      <c r="L32">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M32">
+        <v>0.9325799999999996</v>
+      </c>
+      <c r="N32">
+        <v>7.687420000000001</v>
+      </c>
+      <c r="O32">
+        <v>1.7681066</v>
+      </c>
+      <c r="P32">
+        <v>5.919313400000001</v>
+      </c>
+      <c r="Q32">
+        <v>7.699313400000001</v>
+      </c>
+      <c r="R32">
+        <v>0.4285714285714286</v>
+      </c>
+      <c r="S32">
+        <v>0.09129241209296859</v>
+      </c>
+      <c r="T32">
+        <v>1.517954189128634</v>
+      </c>
+      <c r="U32">
+        <v>0.02</v>
+      </c>
+      <c r="V32">
+        <v>0.23</v>
+      </c>
+      <c r="W32">
+        <v>0.0154</v>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y32">
+        <v>9.243174848270394</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33">
+        <v>0.31</v>
+      </c>
+      <c r="B33">
+        <v>0.0684438970757443</v>
+      </c>
+      <c r="C33">
+        <v>113.4302783505029</v>
+      </c>
+      <c r="D33">
+        <v>151.0135783505029</v>
+      </c>
+      <c r="E33">
+        <v>45.4533</v>
+      </c>
+      <c r="F33">
+        <v>48.1833</v>
+      </c>
+      <c r="G33">
+        <v>10.6</v>
+      </c>
+      <c r="H33">
+        <v>152.7</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>10.4</v>
+      </c>
+      <c r="K33">
+        <v>1.78</v>
+      </c>
+      <c r="L33">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M33">
+        <v>0.9636659999999998</v>
+      </c>
+      <c r="N33">
+        <v>7.656334000000001</v>
+      </c>
+      <c r="O33">
+        <v>1.76095682</v>
+      </c>
+      <c r="P33">
+        <v>5.895377180000001</v>
+      </c>
+      <c r="Q33">
+        <v>7.675377180000001</v>
+      </c>
+      <c r="R33">
+        <v>0.4492753623188406</v>
+      </c>
+      <c r="S33">
+        <v>0.09227521315325263</v>
+      </c>
+      <c r="T33">
+        <v>1.536149128738981</v>
+      </c>
+      <c r="U33">
+        <v>0.02</v>
+      </c>
+      <c r="V33">
+        <v>0.23</v>
+      </c>
+      <c r="W33">
+        <v>0.0154</v>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y33">
+        <v>8.945007917681025</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34">
+        <v>0.32</v>
+      </c>
+      <c r="B34">
+        <v>0.0683631056864106</v>
+      </c>
+      <c r="C34">
+        <v>112.082547183303</v>
+      </c>
+      <c r="D34">
+        <v>151.220147183303</v>
+      </c>
+      <c r="E34">
+        <v>47.0076</v>
+      </c>
+      <c r="F34">
+        <v>49.73759999999999</v>
+      </c>
+      <c r="G34">
+        <v>10.6</v>
+      </c>
+      <c r="H34">
+        <v>152.7</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>10.4</v>
+      </c>
+      <c r="K34">
+        <v>1.78</v>
+      </c>
+      <c r="L34">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M34">
+        <v>0.9947519999999997</v>
+      </c>
+      <c r="N34">
+        <v>7.625248000000001</v>
+      </c>
+      <c r="O34">
+        <v>1.75380704</v>
+      </c>
+      <c r="P34">
+        <v>5.871440960000001</v>
+      </c>
+      <c r="Q34">
+        <v>7.651440960000001</v>
+      </c>
+      <c r="R34">
+        <v>0.4705882352941177</v>
+      </c>
+      <c r="S34">
+        <v>0.09328692012707442</v>
+      </c>
+      <c r="T34">
+        <v>1.554879213631984</v>
+      </c>
+      <c r="U34">
+        <v>0.02</v>
+      </c>
+      <c r="V34">
+        <v>0.23</v>
+      </c>
+      <c r="W34">
+        <v>0.0154</v>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y34">
+        <v>8.665476420253494</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35">
+        <v>0.33</v>
+      </c>
+      <c r="B35">
+        <v>0.06828231429707689</v>
+      </c>
+      <c r="C35">
+        <v>110.7353819139725</v>
+      </c>
+      <c r="D35">
+        <v>151.4272819139725</v>
+      </c>
+      <c r="E35">
+        <v>48.5619</v>
+      </c>
+      <c r="F35">
+        <v>51.2919</v>
+      </c>
+      <c r="G35">
+        <v>10.6</v>
+      </c>
+      <c r="H35">
+        <v>152.7</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>10.4</v>
+      </c>
+      <c r="K35">
+        <v>1.78</v>
+      </c>
+      <c r="L35">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M35">
+        <v>1.025838</v>
+      </c>
+      <c r="N35">
+        <v>7.594162000000001</v>
+      </c>
+      <c r="O35">
+        <v>1.74665726</v>
+      </c>
+      <c r="P35">
+        <v>5.847504740000001</v>
+      </c>
+      <c r="Q35">
+        <v>7.627504740000001</v>
+      </c>
+      <c r="R35">
+        <v>0.4925373134328359</v>
+      </c>
+      <c r="S35">
+        <v>0.09432882730906998</v>
+      </c>
+      <c r="T35">
+        <v>1.57416840553672</v>
+      </c>
+      <c r="U35">
+        <v>0.02</v>
+      </c>
+      <c r="V35">
+        <v>0.23</v>
+      </c>
+      <c r="W35">
+        <v>0.0154</v>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y35">
+        <v>8.402886225700357</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36">
+        <v>0.34</v>
+      </c>
+      <c r="B36">
+        <v>0.06820152290774319</v>
+      </c>
+      <c r="C36">
+        <v>109.3887848711272</v>
+      </c>
+      <c r="D36">
+        <v>151.6349848711272</v>
+      </c>
+      <c r="E36">
+        <v>50.1162</v>
+      </c>
+      <c r="F36">
+        <v>52.8462</v>
+      </c>
+      <c r="G36">
+        <v>10.6</v>
+      </c>
+      <c r="H36">
+        <v>152.7</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>10.4</v>
+      </c>
+      <c r="K36">
+        <v>1.78</v>
+      </c>
+      <c r="L36">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M36">
+        <v>1.056924</v>
+      </c>
+      <c r="N36">
+        <v>7.563076000000001</v>
+      </c>
+      <c r="O36">
+        <v>1.73950748</v>
+      </c>
+      <c r="P36">
+        <v>5.823568520000001</v>
+      </c>
+      <c r="Q36">
+        <v>7.603568520000001</v>
+      </c>
+      <c r="R36">
+        <v>0.5151515151515152</v>
+      </c>
+      <c r="S36">
+        <v>0.09540230743597454</v>
+      </c>
+      <c r="T36">
+        <v>1.594042118408265</v>
+      </c>
+      <c r="U36">
+        <v>0.02</v>
+      </c>
+      <c r="V36">
+        <v>0.23</v>
+      </c>
+      <c r="W36">
+        <v>0.0154</v>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y36">
+        <v>8.155742513179758</v>
+      </c>
+      <c r="Z36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37">
+        <v>0.35</v>
+      </c>
+      <c r="B37">
+        <v>0.06812073151840949</v>
+      </c>
+      <c r="C37">
+        <v>108.0427583961768</v>
+      </c>
+      <c r="D37">
+        <v>151.8432583961768</v>
+      </c>
+      <c r="E37">
+        <v>51.6705</v>
+      </c>
+      <c r="F37">
+        <v>54.4005</v>
+      </c>
+      <c r="G37">
+        <v>10.6</v>
+      </c>
+      <c r="H37">
+        <v>152.7</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>10.4</v>
+      </c>
+      <c r="K37">
+        <v>1.78</v>
+      </c>
+      <c r="L37">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M37">
+        <v>1.08801</v>
+      </c>
+      <c r="N37">
+        <v>7.531990000000001</v>
+      </c>
+      <c r="O37">
+        <v>1.7323577</v>
+      </c>
+      <c r="P37">
+        <v>5.799632300000001</v>
+      </c>
+      <c r="Q37">
+        <v>7.579632300000001</v>
+      </c>
+      <c r="R37">
+        <v>0.5384615384615385</v>
+      </c>
+      <c r="S37">
+        <v>0.09650881772062998</v>
+      </c>
+      <c r="T37">
+        <v>1.614527330137396</v>
+      </c>
+      <c r="U37">
+        <v>0.02</v>
+      </c>
+      <c r="V37">
+        <v>0.23</v>
+      </c>
+      <c r="W37">
+        <v>0.0154</v>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>A1/A+</t>
+        </is>
+      </c>
+      <c r="Y37">
+        <v>7.922721298517478</v>
+      </c>
+      <c r="Z37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38">
+        <v>0.36</v>
+      </c>
+      <c r="B38">
+        <v>0.06834486012907579</v>
+      </c>
+      <c r="C38">
+        <v>105.9120759901726</v>
+      </c>
+      <c r="D38">
+        <v>151.2668759901726</v>
+      </c>
+      <c r="E38">
+        <v>53.22479999999999</v>
+      </c>
+      <c r="F38">
+        <v>55.95479999999999</v>
+      </c>
+      <c r="G38">
+        <v>10.6</v>
+      </c>
+      <c r="H38">
+        <v>152.7</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>10.4</v>
+      </c>
+      <c r="K38">
+        <v>1.78</v>
+      </c>
+      <c r="L38">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M38">
+        <v>1.18064628</v>
+      </c>
+      <c r="N38">
+        <v>7.439353720000002</v>
+      </c>
+      <c r="O38">
+        <v>1.7110513556</v>
+      </c>
+      <c r="P38">
+        <v>5.728302364400001</v>
+      </c>
+      <c r="Q38">
+        <v>7.508302364400001</v>
+      </c>
+      <c r="R38">
+        <v>0.5625</v>
+      </c>
+      <c r="S38">
+        <v>0.09764990645168091</v>
+      </c>
+      <c r="T38">
+        <v>1.635652704733063</v>
+      </c>
+      <c r="U38">
+        <v>0.0211</v>
+      </c>
+      <c r="V38">
+        <v>0.23</v>
+      </c>
+      <c r="W38">
+        <v>0.016247</v>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y38">
+        <v>7.301085978096676</v>
+      </c>
+      <c r="Z38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39">
+        <v>0.37</v>
+      </c>
+      <c r="B39">
+        <v>0.06827253873974208</v>
+      </c>
+      <c r="C39">
+        <v>104.5432831917543</v>
+      </c>
+      <c r="D39">
+        <v>151.4523831917543</v>
+      </c>
+      <c r="E39">
+        <v>54.77909999999999</v>
+      </c>
+      <c r="F39">
+        <v>57.50909999999999</v>
+      </c>
+      <c r="G39">
+        <v>10.6</v>
+      </c>
+      <c r="H39">
+        <v>152.7</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>10.4</v>
+      </c>
+      <c r="K39">
+        <v>1.78</v>
+      </c>
+      <c r="L39">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M39">
+        <v>1.21344201</v>
+      </c>
+      <c r="N39">
+        <v>7.406557990000001</v>
+      </c>
+      <c r="O39">
+        <v>1.7035083377</v>
+      </c>
+      <c r="P39">
+        <v>5.703049652300001</v>
+      </c>
+      <c r="Q39">
+        <v>7.483049652300001</v>
+      </c>
+      <c r="R39">
+        <v>0.5873015873015873</v>
+      </c>
+      <c r="S39">
+        <v>0.09882722022181283</v>
+      </c>
+      <c r="T39">
+        <v>1.657448726141291</v>
+      </c>
+      <c r="U39">
+        <v>0.0211</v>
+      </c>
+      <c r="V39">
+        <v>0.23</v>
+      </c>
+      <c r="W39">
+        <v>0.016247</v>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y39">
+        <v>7.10375933004001</v>
+      </c>
+      <c r="Z39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40">
+        <v>0.38</v>
+      </c>
+      <c r="B40">
+        <v>0.06820021735040836</v>
+      </c>
+      <c r="C40">
+        <v>103.1749459481422</v>
+      </c>
+      <c r="D40">
+        <v>151.6383459481422</v>
+      </c>
+      <c r="E40">
+        <v>56.3334</v>
+      </c>
+      <c r="F40">
+        <v>59.06339999999999</v>
+      </c>
+      <c r="G40">
+        <v>10.6</v>
+      </c>
+      <c r="H40">
+        <v>152.7</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>10.4</v>
+      </c>
+      <c r="K40">
+        <v>1.78</v>
+      </c>
+      <c r="L40">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M40">
+        <v>1.24623774</v>
+      </c>
+      <c r="N40">
+        <v>7.373762260000001</v>
+      </c>
+      <c r="O40">
+        <v>1.6959653198</v>
+      </c>
+      <c r="P40">
+        <v>5.6777969402</v>
+      </c>
+      <c r="Q40">
+        <v>7.457796940200001</v>
+      </c>
+      <c r="R40">
+        <v>0.6129032258064516</v>
+      </c>
+      <c r="S40">
+        <v>0.1000425118554974</v>
+      </c>
+      <c r="T40">
+        <v>1.6799478450143</v>
+      </c>
+      <c r="U40">
+        <v>0.0211</v>
+      </c>
+      <c r="V40">
+        <v>0.23</v>
+      </c>
+      <c r="W40">
+        <v>0.016247</v>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y40">
+        <v>6.916818295038956</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41">
+        <v>0.39</v>
+      </c>
+      <c r="B41">
+        <v>0.06812789596107467</v>
+      </c>
+      <c r="C41">
+        <v>101.8070659394758</v>
+      </c>
+      <c r="D41">
+        <v>151.8247659394758</v>
+      </c>
+      <c r="E41">
+        <v>57.8877</v>
+      </c>
+      <c r="F41">
+        <v>60.61769999999999</v>
+      </c>
+      <c r="G41">
+        <v>10.6</v>
+      </c>
+      <c r="H41">
+        <v>152.7</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>10.4</v>
+      </c>
+      <c r="K41">
+        <v>1.78</v>
+      </c>
+      <c r="L41">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M41">
+        <v>1.27903347</v>
+      </c>
+      <c r="N41">
+        <v>7.340966530000001</v>
+      </c>
+      <c r="O41">
+        <v>1.6884223019</v>
+      </c>
+      <c r="P41">
+        <v>5.652544228100001</v>
+      </c>
+      <c r="Q41">
+        <v>7.432544228100001</v>
+      </c>
+      <c r="R41">
+        <v>0.639344262295082</v>
+      </c>
+      <c r="S41">
+        <v>0.1012976491165159</v>
+      </c>
+      <c r="T41">
+        <v>1.703184639915932</v>
+      </c>
+      <c r="U41">
+        <v>0.0211</v>
+      </c>
+      <c r="V41">
+        <v>0.23</v>
+      </c>
+      <c r="W41">
+        <v>0.016247</v>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y41">
+        <v>6.739463979781547</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42">
+        <v>0.06805557457174095</v>
+      </c>
+      <c r="C42">
+        <v>100.4396448541667</v>
+      </c>
+      <c r="D42">
+        <v>152.0116448541667</v>
+      </c>
+      <c r="E42">
+        <v>59.442</v>
+      </c>
+      <c r="F42">
+        <v>62.172</v>
+      </c>
+      <c r="G42">
+        <v>10.6</v>
+      </c>
+      <c r="H42">
+        <v>152.7</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>10.4</v>
+      </c>
+      <c r="K42">
+        <v>1.78</v>
+      </c>
+      <c r="L42">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M42">
+        <v>1.3118292</v>
+      </c>
+      <c r="N42">
+        <v>7.308170800000001</v>
+      </c>
+      <c r="O42">
+        <v>1.680879284</v>
+      </c>
+      <c r="P42">
+        <v>5.627291516000001</v>
+      </c>
+      <c r="Q42">
+        <v>7.407291516000001</v>
+      </c>
+      <c r="R42">
+        <v>0.6666666666666667</v>
+      </c>
+      <c r="S42">
+        <v>0.1025946242862349</v>
+      </c>
+      <c r="T42">
+        <v>1.727195994647619</v>
+      </c>
+      <c r="U42">
+        <v>0.0211</v>
+      </c>
+      <c r="V42">
+        <v>0.23</v>
+      </c>
+      <c r="W42">
+        <v>0.016247</v>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>A2/A</t>
+        </is>
+      </c>
+      <c r="Y42">
+        <v>6.570977380287007</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43">
+        <v>0.41</v>
+      </c>
+      <c r="B43">
+        <v>0.06845680318240725</v>
+      </c>
+      <c r="C43">
+        <v>97.85433205785533</v>
+      </c>
+      <c r="D43">
+        <v>150.9806320578553</v>
+      </c>
+      <c r="E43">
+        <v>60.9963</v>
+      </c>
+      <c r="F43">
+        <v>63.72629999999999</v>
+      </c>
+      <c r="G43">
+        <v>10.6</v>
+      </c>
+      <c r="H43">
+        <v>152.7</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>10.4</v>
+      </c>
+      <c r="K43">
+        <v>1.78</v>
+      </c>
+      <c r="L43">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M43">
+        <v>1.44021438</v>
+      </c>
+      <c r="N43">
+        <v>7.179785620000001</v>
+      </c>
+      <c r="O43">
+        <v>1.6513506926</v>
+      </c>
+      <c r="P43">
+        <v>5.528434927400001</v>
+      </c>
+      <c r="Q43">
+        <v>7.308434927400001</v>
+      </c>
+      <c r="R43">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="S43">
+        <v>0.1039355647159445</v>
+      </c>
+      <c r="T43">
+        <v>1.752021293607499</v>
+      </c>
+      <c r="U43">
+        <v>0.0226</v>
+      </c>
+      <c r="V43">
+        <v>0.23</v>
+      </c>
+      <c r="W43">
+        <v>0.017402</v>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y43">
+        <v>5.985220061474461</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44">
+        <v>0.42</v>
+      </c>
+      <c r="B44">
+        <v>0.06839603179307356</v>
+      </c>
+      <c r="C44">
+        <v>96.45529295260985</v>
+      </c>
+      <c r="D44">
+        <v>151.1358929526099</v>
+      </c>
+      <c r="E44">
+        <v>62.5506</v>
+      </c>
+      <c r="F44">
+        <v>65.28059999999999</v>
+      </c>
+      <c r="G44">
+        <v>10.6</v>
+      </c>
+      <c r="H44">
+        <v>152.7</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>10.4</v>
+      </c>
+      <c r="K44">
+        <v>1.78</v>
+      </c>
+      <c r="L44">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M44">
+        <v>1.47534156</v>
+      </c>
+      <c r="N44">
+        <v>7.144658440000001</v>
+      </c>
+      <c r="O44">
+        <v>1.6432714412</v>
+      </c>
+      <c r="P44">
+        <v>5.501386998800001</v>
+      </c>
+      <c r="Q44">
+        <v>7.281386998800001</v>
+      </c>
+      <c r="R44">
+        <v>0.7241379310344827</v>
+      </c>
+      <c r="S44">
+        <v>0.1053227444708165</v>
+      </c>
+      <c r="T44">
+        <v>1.777702637359098</v>
+      </c>
+      <c r="U44">
+        <v>0.0226</v>
+      </c>
+      <c r="V44">
+        <v>0.23</v>
+      </c>
+      <c r="W44">
+        <v>0.017402</v>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y44">
+        <v>5.842714821915545</v>
+      </c>
+      <c r="Z44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45">
+        <v>0.43</v>
+      </c>
+      <c r="B45">
+        <v>0.06833526040373984</v>
+      </c>
+      <c r="C45">
+        <v>95.05657350108389</v>
+      </c>
+      <c r="D45">
+        <v>151.2914735010839</v>
+      </c>
+      <c r="E45">
+        <v>64.10489999999999</v>
+      </c>
+      <c r="F45">
+        <v>66.83489999999999</v>
+      </c>
+      <c r="G45">
+        <v>10.6</v>
+      </c>
+      <c r="H45">
+        <v>152.7</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>10.4</v>
+      </c>
+      <c r="K45">
+        <v>1.78</v>
+      </c>
+      <c r="L45">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M45">
+        <v>1.51046874</v>
+      </c>
+      <c r="N45">
+        <v>7.109531260000002</v>
+      </c>
+      <c r="O45">
+        <v>1.6351921898</v>
+      </c>
+      <c r="P45">
+        <v>5.474339070200001</v>
+      </c>
+      <c r="Q45">
+        <v>7.254339070200001</v>
+      </c>
+      <c r="R45">
+        <v>0.7543859649122806</v>
+      </c>
+      <c r="S45">
+        <v>0.1067585971995436</v>
+      </c>
+      <c r="T45">
+        <v>1.804285080891455</v>
+      </c>
+      <c r="U45">
+        <v>0.0226</v>
+      </c>
+      <c r="V45">
+        <v>0.23</v>
+      </c>
+      <c r="W45">
+        <v>0.017402</v>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y45">
+        <v>5.706837733033788</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46">
+        <v>0.44</v>
+      </c>
+      <c r="B46">
+        <v>0.06827448901440615</v>
+      </c>
+      <c r="C46">
+        <v>93.65817469145719</v>
+      </c>
+      <c r="D46">
+        <v>151.4473746914572</v>
+      </c>
+      <c r="E46">
+        <v>65.65919999999998</v>
+      </c>
+      <c r="F46">
+        <v>68.38919999999999</v>
+      </c>
+      <c r="G46">
+        <v>10.6</v>
+      </c>
+      <c r="H46">
+        <v>152.7</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>10.4</v>
+      </c>
+      <c r="K46">
+        <v>1.78</v>
+      </c>
+      <c r="L46">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M46">
+        <v>1.54559592</v>
+      </c>
+      <c r="N46">
+        <v>7.074404080000002</v>
+      </c>
+      <c r="O46">
+        <v>1.6271129384</v>
+      </c>
+      <c r="P46">
+        <v>5.447291141600001</v>
+      </c>
+      <c r="Q46">
+        <v>7.227291141600001</v>
+      </c>
+      <c r="R46">
+        <v>0.7857142857142857</v>
+      </c>
+      <c r="S46">
+        <v>0.1082457303828681</v>
+      </c>
+      <c r="T46">
+        <v>1.831816897407111</v>
+      </c>
+      <c r="U46">
+        <v>0.0226</v>
+      </c>
+      <c r="V46">
+        <v>0.23</v>
+      </c>
+      <c r="W46">
+        <v>0.017402</v>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y46">
+        <v>5.57713687546484</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47">
+        <v>0.45</v>
+      </c>
+      <c r="B47">
+        <v>0.06821371762507243</v>
+      </c>
+      <c r="C47">
+        <v>92.26009751598708</v>
+      </c>
+      <c r="D47">
+        <v>151.6035975159871</v>
+      </c>
+      <c r="E47">
+        <v>67.21349999999998</v>
+      </c>
+      <c r="F47">
+        <v>69.94349999999999</v>
+      </c>
+      <c r="G47">
+        <v>10.6</v>
+      </c>
+      <c r="H47">
+        <v>152.7</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>10.4</v>
+      </c>
+      <c r="K47">
+        <v>1.78</v>
+      </c>
+      <c r="L47">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M47">
+        <v>1.580723099999999</v>
+      </c>
+      <c r="N47">
+        <v>7.039276900000002</v>
+      </c>
+      <c r="O47">
+        <v>1.619033687</v>
+      </c>
+      <c r="P47">
+        <v>5.420243213000001</v>
+      </c>
+      <c r="Q47">
+        <v>7.200243213000001</v>
+      </c>
+      <c r="R47">
+        <v>0.8181818181818181</v>
+      </c>
+      <c r="S47">
+        <v>0.1097869411364953</v>
+      </c>
+      <c r="T47">
+        <v>1.860349870886973</v>
+      </c>
+      <c r="U47">
+        <v>0.0226</v>
+      </c>
+      <c r="V47">
+        <v>0.23</v>
+      </c>
+      <c r="W47">
+        <v>0.017402</v>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y47">
+        <v>5.45320050045451</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48">
+        <v>0.46</v>
+      </c>
+      <c r="B48">
+        <v>0.06815294623573874</v>
+      </c>
+      <c r="C48">
+        <v>90.86234297102901</v>
+      </c>
+      <c r="D48">
+        <v>151.760142971029</v>
+      </c>
+      <c r="E48">
+        <v>68.76779999999999</v>
+      </c>
+      <c r="F48">
+        <v>71.4978</v>
+      </c>
+      <c r="G48">
+        <v>10.6</v>
+      </c>
+      <c r="H48">
+        <v>152.7</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>10.4</v>
+      </c>
+      <c r="K48">
+        <v>1.78</v>
+      </c>
+      <c r="L48">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M48">
+        <v>1.61585028</v>
+      </c>
+      <c r="N48">
+        <v>7.004149720000001</v>
+      </c>
+      <c r="O48">
+        <v>1.6109544356</v>
+      </c>
+      <c r="P48">
+        <v>5.393195284400001</v>
+      </c>
+      <c r="Q48">
+        <v>7.173195284400001</v>
+      </c>
+      <c r="R48">
+        <v>0.8518518518518519</v>
+      </c>
+      <c r="S48">
+        <v>0.1113852337698865</v>
+      </c>
+      <c r="T48">
+        <v>1.889939621162385</v>
+      </c>
+      <c r="U48">
+        <v>0.0226</v>
+      </c>
+      <c r="V48">
+        <v>0.23</v>
+      </c>
+      <c r="W48">
+        <v>0.017402</v>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y48">
+        <v>5.334652663488106</v>
+      </c>
+      <c r="Z48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49">
+        <v>0.47</v>
+      </c>
+      <c r="B49">
+        <v>0.06809217484640502</v>
+      </c>
+      <c r="C49">
+        <v>89.46491205705834</v>
+      </c>
+      <c r="D49">
+        <v>151.9170120570583</v>
+      </c>
+      <c r="E49">
+        <v>70.32209999999999</v>
+      </c>
+      <c r="F49">
+        <v>73.0521</v>
+      </c>
+      <c r="G49">
+        <v>10.6</v>
+      </c>
+      <c r="H49">
+        <v>152.7</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>10.4</v>
+      </c>
+      <c r="K49">
+        <v>1.78</v>
+      </c>
+      <c r="L49">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M49">
+        <v>1.65097746</v>
+      </c>
+      <c r="N49">
+        <v>6.969022540000001</v>
+      </c>
+      <c r="O49">
+        <v>1.6028751842</v>
+      </c>
+      <c r="P49">
+        <v>5.366147355800001</v>
+      </c>
+      <c r="Q49">
+        <v>7.146147355800001</v>
+      </c>
+      <c r="R49">
+        <v>0.8867924528301887</v>
+      </c>
+      <c r="S49">
+        <v>0.1130438393328397</v>
+      </c>
+      <c r="T49">
+        <v>1.920645965787812</v>
+      </c>
+      <c r="U49">
+        <v>0.0226</v>
+      </c>
+      <c r="V49">
+        <v>0.23</v>
+      </c>
+      <c r="W49">
+        <v>0.017402</v>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y49">
+        <v>5.221149415328784</v>
+      </c>
+      <c r="Z49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>0.48</v>
+      </c>
+      <c r="B50">
+        <v>0.06803140345707132</v>
+      </c>
+      <c r="C50">
+        <v>88.06780577869112</v>
+      </c>
+      <c r="D50">
+        <v>152.0742057786911</v>
+      </c>
+      <c r="E50">
+        <v>71.87639999999999</v>
+      </c>
+      <c r="F50">
+        <v>74.60639999999999</v>
+      </c>
+      <c r="G50">
+        <v>10.6</v>
+      </c>
+      <c r="H50">
+        <v>152.7</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>10.4</v>
+      </c>
+      <c r="K50">
+        <v>1.78</v>
+      </c>
+      <c r="L50">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M50">
+        <v>1.68610464</v>
+      </c>
+      <c r="N50">
+        <v>6.933895360000001</v>
+      </c>
+      <c r="O50">
+        <v>1.5947959328</v>
+      </c>
+      <c r="P50">
+        <v>5.339099427200001</v>
+      </c>
+      <c r="Q50">
+        <v>7.119099427200001</v>
+      </c>
+      <c r="R50">
+        <v>0.923076923076923</v>
+      </c>
+      <c r="S50">
+        <v>0.1147662374174448</v>
+      </c>
+      <c r="T50">
+        <v>1.952533323668064</v>
+      </c>
+      <c r="U50">
+        <v>0.0226</v>
+      </c>
+      <c r="V50">
+        <v>0.23</v>
+      </c>
+      <c r="W50">
+        <v>0.017402</v>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y50">
+        <v>5.112375469176102</v>
+      </c>
+      <c r="Z50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>0.49</v>
+      </c>
+      <c r="B51">
+        <v>0.06797063206773761</v>
+      </c>
+      <c r="C51">
+        <v>86.67102514470582</v>
+      </c>
+      <c r="D51">
+        <v>152.2317251447058</v>
+      </c>
+      <c r="E51">
+        <v>73.43069999999999</v>
+      </c>
+      <c r="F51">
+        <v>76.16069999999999</v>
+      </c>
+      <c r="G51">
+        <v>10.6</v>
+      </c>
+      <c r="H51">
+        <v>152.7</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>10.4</v>
+      </c>
+      <c r="K51">
+        <v>1.78</v>
+      </c>
+      <c r="L51">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M51">
+        <v>1.72123182</v>
+      </c>
+      <c r="N51">
+        <v>6.898768180000001</v>
+      </c>
+      <c r="O51">
+        <v>1.5867166814</v>
+      </c>
+      <c r="P51">
+        <v>5.312051498600001</v>
+      </c>
+      <c r="Q51">
+        <v>7.092051498600001</v>
+      </c>
+      <c r="R51">
+        <v>0.9607843137254901</v>
+      </c>
+      <c r="S51">
+        <v>0.1165561805249757</v>
+      </c>
+      <c r="T51">
+        <v>1.98567116617107</v>
+      </c>
+      <c r="U51">
+        <v>0.0226</v>
+      </c>
+      <c r="V51">
+        <v>0.23</v>
+      </c>
+      <c r="W51">
+        <v>0.017402</v>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y51">
+        <v>5.00804127592761</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>0.5</v>
+      </c>
+      <c r="B52">
+        <v>0.0679098606784039</v>
+      </c>
+      <c r="C52">
+        <v>85.27457116806481</v>
+      </c>
+      <c r="D52">
+        <v>152.3895711680648</v>
+      </c>
+      <c r="E52">
+        <v>74.98499999999999</v>
+      </c>
+      <c r="F52">
+        <v>77.71499999999999</v>
+      </c>
+      <c r="G52">
+        <v>10.6</v>
+      </c>
+      <c r="H52">
+        <v>152.7</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>10.4</v>
+      </c>
+      <c r="K52">
+        <v>1.78</v>
+      </c>
+      <c r="L52">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M52">
+        <v>1.756359</v>
+      </c>
+      <c r="N52">
+        <v>6.863641000000001</v>
+      </c>
+      <c r="O52">
+        <v>1.57863743</v>
+      </c>
+      <c r="P52">
+        <v>5.285003570000001</v>
+      </c>
+      <c r="Q52">
+        <v>7.065003570000001</v>
+      </c>
+      <c r="R52">
+        <v>1</v>
+      </c>
+      <c r="S52">
+        <v>0.1184177213568078</v>
+      </c>
+      <c r="T52">
+        <v>2.020134522374197</v>
+      </c>
+      <c r="U52">
+        <v>0.0226</v>
+      </c>
+      <c r="V52">
+        <v>0.23</v>
+      </c>
+      <c r="W52">
+        <v>0.017402</v>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y52">
+        <v>4.907880450409058</v>
+      </c>
+      <c r="Z52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>0.51</v>
+      </c>
+      <c r="B53">
+        <v>0.06784908928907021</v>
+      </c>
+      <c r="C53">
+        <v>83.8784448659361</v>
+      </c>
+      <c r="D53">
+        <v>152.5477448659361</v>
+      </c>
+      <c r="E53">
+        <v>76.53929999999998</v>
+      </c>
+      <c r="F53">
+        <v>79.26929999999999</v>
+      </c>
+      <c r="G53">
+        <v>10.6</v>
+      </c>
+      <c r="H53">
+        <v>152.7</v>
+      </c>
+      <c r="I53">
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>10.4</v>
+      </c>
+      <c r="K53">
+        <v>1.78</v>
+      </c>
+      <c r="L53">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M53">
+        <v>1.791486179999999</v>
+      </c>
+      <c r="N53">
+        <v>6.828513820000001</v>
+      </c>
+      <c r="O53">
+        <v>1.5705581786</v>
+      </c>
+      <c r="P53">
+        <v>5.257955641400001</v>
+      </c>
+      <c r="Q53">
+        <v>7.037955641400001</v>
+      </c>
+      <c r="R53">
+        <v>1.040816326530612</v>
+      </c>
+      <c r="S53">
+        <v>0.1203552434470821</v>
+      </c>
+      <c r="T53">
+        <v>2.056004546177452</v>
+      </c>
+      <c r="U53">
+        <v>0.0226</v>
+      </c>
+      <c r="V53">
+        <v>0.23</v>
+      </c>
+      <c r="W53">
+        <v>0.017402</v>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y53">
+        <v>4.811647500401038</v>
+      </c>
+      <c r="Z53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>0.52</v>
+      </c>
+      <c r="B54">
+        <v>0.06778831789973651</v>
+      </c>
+      <c r="C54">
+        <v>82.48264725971531</v>
+      </c>
+      <c r="D54">
+        <v>152.7062472597153</v>
+      </c>
+      <c r="E54">
+        <v>78.09359999999998</v>
+      </c>
+      <c r="F54">
+        <v>80.82359999999998</v>
+      </c>
+      <c r="G54">
+        <v>10.6</v>
+      </c>
+      <c r="H54">
+        <v>152.7</v>
+      </c>
+      <c r="I54">
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>10.4</v>
+      </c>
+      <c r="K54">
+        <v>1.78</v>
+      </c>
+      <c r="L54">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M54">
+        <v>1.82661336</v>
+      </c>
+      <c r="N54">
+        <v>6.793386640000001</v>
+      </c>
+      <c r="O54">
+        <v>1.5624789272</v>
+      </c>
+      <c r="P54">
+        <v>5.230907712800001</v>
+      </c>
+      <c r="Q54">
+        <v>7.010907712800001</v>
+      </c>
+      <c r="R54">
+        <v>1.083333333333333</v>
+      </c>
+      <c r="S54">
+        <v>0.1223734956244511</v>
+      </c>
+      <c r="T54">
+        <v>2.093369154305842</v>
+      </c>
+      <c r="U54">
+        <v>0.0226</v>
+      </c>
+      <c r="V54">
+        <v>0.23</v>
+      </c>
+      <c r="W54">
+        <v>0.017402</v>
+      </c>
+      <c r="X54" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y54">
+        <v>4.719115817701018</v>
+      </c>
+      <c r="Z54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>0.53</v>
+      </c>
+      <c r="B55">
+        <v>0.0677275465104028</v>
+      </c>
+      <c r="C55">
+        <v>81.08717937504731</v>
+      </c>
+      <c r="D55">
+        <v>152.8650793750473</v>
+      </c>
+      <c r="E55">
+        <v>79.64789999999999</v>
+      </c>
+      <c r="F55">
+        <v>82.3779</v>
+      </c>
+      <c r="G55">
+        <v>10.6</v>
+      </c>
+      <c r="H55">
+        <v>152.7</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>10.4</v>
+      </c>
+      <c r="K55">
+        <v>1.78</v>
+      </c>
+      <c r="L55">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M55">
+        <v>1.86174054</v>
+      </c>
+      <c r="N55">
+        <v>6.758259460000001</v>
+      </c>
+      <c r="O55">
+        <v>1.5543996758</v>
+      </c>
+      <c r="P55">
+        <v>5.203859784200001</v>
+      </c>
+      <c r="Q55">
+        <v>6.983859784200001</v>
+      </c>
+      <c r="R55">
+        <v>1.127659574468085</v>
+      </c>
+      <c r="S55">
+        <v>0.1244776308731975</v>
+      </c>
+      <c r="T55">
+        <v>2.132323745758845</v>
+      </c>
+      <c r="U55">
+        <v>0.0226</v>
+      </c>
+      <c r="V55">
+        <v>0.23</v>
+      </c>
+      <c r="W55">
+        <v>0.017402</v>
+      </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y55">
+        <v>4.630075896612318</v>
+      </c>
+      <c r="Z55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>0.54</v>
+      </c>
+      <c r="B56">
+        <v>0.06766677512106908</v>
+      </c>
+      <c r="C56">
+        <v>79.69204224184887</v>
+      </c>
+      <c r="D56">
+        <v>153.0242422418489</v>
+      </c>
+      <c r="E56">
+        <v>81.20219999999999</v>
+      </c>
+      <c r="F56">
+        <v>83.93219999999999</v>
+      </c>
+      <c r="G56">
+        <v>10.6</v>
+      </c>
+      <c r="H56">
+        <v>152.7</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>10.4</v>
+      </c>
+      <c r="K56">
+        <v>1.78</v>
+      </c>
+      <c r="L56">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M56">
+        <v>1.89686772</v>
+      </c>
+      <c r="N56">
+        <v>6.723132280000002</v>
+      </c>
+      <c r="O56">
+        <v>1.5463204244</v>
+      </c>
+      <c r="P56">
+        <v>5.176811855600001</v>
+      </c>
+      <c r="Q56">
+        <v>6.956811855600002</v>
+      </c>
+      <c r="R56">
+        <v>1.173913043478261</v>
+      </c>
+      <c r="S56">
+        <v>0.1266732502631937</v>
+      </c>
+      <c r="T56">
+        <v>2.172972015101108</v>
+      </c>
+      <c r="U56">
+        <v>0.0226</v>
+      </c>
+      <c r="V56">
+        <v>0.23</v>
+      </c>
+      <c r="W56">
+        <v>0.017402</v>
+      </c>
+      <c r="X56" t="inlineStr">
+        <is>
+          <t>A3/A-</t>
+        </is>
+      </c>
+      <c r="Y56">
+        <v>4.544333750378757</v>
+      </c>
+      <c r="Z56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>0.55</v>
+      </c>
+      <c r="B57">
+        <v>0.105813522596179</v>
+      </c>
+      <c r="C57">
+        <v>17.6552630063333</v>
+      </c>
+      <c r="D57">
+        <v>92.5417630063333</v>
+      </c>
+      <c r="E57">
+        <v>82.75649999999999</v>
+      </c>
+      <c r="F57">
+        <v>85.48649999999999</v>
+      </c>
+      <c r="G57">
+        <v>10.6</v>
+      </c>
+      <c r="H57">
+        <v>152.7</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>10.4</v>
+      </c>
+      <c r="K57">
+        <v>1.78</v>
+      </c>
+      <c r="L57">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M57">
+        <v>9.318028499999999</v>
+      </c>
+      <c r="N57">
+        <v>-0.6980284999999977</v>
+      </c>
+      <c r="O57">
+        <v>-0.1605465549999995</v>
+      </c>
+      <c r="P57">
+        <v>-0.5374819449999982</v>
+      </c>
+      <c r="Q57">
+        <v>1.242518055000002</v>
+      </c>
+      <c r="R57">
+        <v>1.222222222222223</v>
+      </c>
+      <c r="S57">
+        <v>0.1302646753039826</v>
+      </c>
+      <c r="T57">
+        <v>2.239461322421713</v>
+      </c>
+      <c r="U57">
+        <v>0.109</v>
+      </c>
+      <c r="V57">
+        <v>0.2127703301186512</v>
+      </c>
+      <c r="W57">
+        <v>0.08580803401706702</v>
+      </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y57">
+        <v>0.9250883918202227</v>
+      </c>
+      <c r="Z57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="B58">
+        <v>0.106810522596179</v>
+      </c>
+      <c r="C58">
+        <v>15.15476627534655</v>
+      </c>
+      <c r="D58">
+        <v>91.59556627534654</v>
+      </c>
+      <c r="E58">
+        <v>84.31079999999999</v>
+      </c>
+      <c r="F58">
+        <v>87.04079999999999</v>
+      </c>
+      <c r="G58">
+        <v>10.6</v>
+      </c>
+      <c r="H58">
+        <v>152.7</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>10.4</v>
+      </c>
+      <c r="K58">
+        <v>1.78</v>
+      </c>
+      <c r="L58">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M58">
+        <v>9.487447199999998</v>
+      </c>
+      <c r="N58">
+        <v>-0.8674471999999973</v>
+      </c>
+      <c r="O58">
+        <v>-0.1995128559999994</v>
+      </c>
+      <c r="P58">
+        <v>-0.667934343999998</v>
+      </c>
+      <c r="Q58">
+        <v>1.112065656000002</v>
+      </c>
+      <c r="R58">
+        <v>1.272727272727273</v>
+      </c>
+      <c r="S58">
+        <v>0.1330138724699823</v>
+      </c>
+      <c r="T58">
+        <v>2.290358170658571</v>
+      </c>
+      <c r="U58">
+        <v>0.109</v>
+      </c>
+      <c r="V58">
+        <v>0.2089708599379611</v>
+      </c>
+      <c r="W58">
+        <v>0.08622217626676225</v>
+      </c>
+      <c r="X58" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y58">
+        <v>0.9085689562520045</v>
+      </c>
+      <c r="Z58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>0.5700000000000001</v>
+      </c>
+      <c r="B59">
+        <v>0.107807522596179</v>
+      </c>
+      <c r="C59">
+        <v>12.67342256163057</v>
+      </c>
+      <c r="D59">
+        <v>90.66852256163058</v>
+      </c>
+      <c r="E59">
+        <v>85.8651</v>
+      </c>
+      <c r="F59">
+        <v>88.5951</v>
+      </c>
+      <c r="G59">
+        <v>10.6</v>
+      </c>
+      <c r="H59">
+        <v>152.7</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>10.4</v>
+      </c>
+      <c r="K59">
+        <v>1.78</v>
+      </c>
+      <c r="L59">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M59">
+        <v>9.6568659</v>
+      </c>
+      <c r="N59">
+        <v>-1.036865899999999</v>
+      </c>
+      <c r="O59">
+        <v>-0.2384791569999997</v>
+      </c>
+      <c r="P59">
+        <v>-0.798386742999999</v>
+      </c>
+      <c r="Q59">
+        <v>0.981613257000001</v>
+      </c>
+      <c r="R59">
+        <v>1.325581395348838</v>
+      </c>
+      <c r="S59">
+        <v>0.1358909392716097</v>
+      </c>
+      <c r="T59">
+        <v>2.343622314162258</v>
+      </c>
+      <c r="U59">
+        <v>0.109</v>
+      </c>
+      <c r="V59">
+        <v>0.2053047045004529</v>
+      </c>
+      <c r="W59">
+        <v>0.08662178720945063</v>
+      </c>
+      <c r="X59" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y59">
+        <v>0.8926291500019692</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>0.58</v>
+      </c>
+      <c r="B60">
+        <v>0.108804522596179</v>
+      </c>
+      <c r="C60">
+        <v>10.21065614587978</v>
+      </c>
+      <c r="D60">
+        <v>89.76005614587977</v>
+      </c>
+      <c r="E60">
+        <v>87.41939999999998</v>
+      </c>
+      <c r="F60">
+        <v>90.14939999999999</v>
+      </c>
+      <c r="G60">
+        <v>10.6</v>
+      </c>
+      <c r="H60">
+        <v>152.7</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>10.4</v>
+      </c>
+      <c r="K60">
+        <v>1.78</v>
+      </c>
+      <c r="L60">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M60">
+        <v>9.826284599999999</v>
+      </c>
+      <c r="N60">
+        <v>-1.206284599999998</v>
+      </c>
+      <c r="O60">
+        <v>-0.2774454579999996</v>
+      </c>
+      <c r="P60">
+        <v>-0.9288391419999986</v>
+      </c>
+      <c r="Q60">
+        <v>0.8511608580000014</v>
+      </c>
+      <c r="R60">
+        <v>1.380952380952381</v>
+      </c>
+      <c r="S60">
+        <v>0.1389050092542671</v>
+      </c>
+      <c r="T60">
+        <v>2.399422845451835</v>
+      </c>
+      <c r="U60">
+        <v>0.109</v>
+      </c>
+      <c r="V60">
+        <v>0.2017649682159624</v>
+      </c>
+      <c r="W60">
+        <v>0.0870076184644601</v>
+      </c>
+      <c r="X60" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y60">
+        <v>0.8772389922433146</v>
+      </c>
+      <c r="Z60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>0.59</v>
+      </c>
+      <c r="B61">
+        <v>0.109801522596179</v>
+      </c>
+      <c r="C61">
+        <v>7.765914153901008</v>
+      </c>
+      <c r="D61">
+        <v>88.869614153901</v>
+      </c>
+      <c r="E61">
+        <v>88.97369999999998</v>
+      </c>
+      <c r="F61">
+        <v>91.70369999999998</v>
+      </c>
+      <c r="G61">
+        <v>10.6</v>
+      </c>
+      <c r="H61">
+        <v>152.7</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>10.4</v>
+      </c>
+      <c r="K61">
+        <v>1.78</v>
+      </c>
+      <c r="L61">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M61">
+        <v>9.995703299999999</v>
+      </c>
+      <c r="N61">
+        <v>-1.375703299999998</v>
+      </c>
+      <c r="O61">
+        <v>-0.3164117589999995</v>
+      </c>
+      <c r="P61">
+        <v>-1.059291540999998</v>
+      </c>
+      <c r="Q61">
+        <v>0.7207084590000017</v>
+      </c>
+      <c r="R61">
+        <v>1.439024390243902</v>
+      </c>
+      <c r="S61">
+        <v>0.1420661070409565</v>
+      </c>
+      <c r="T61">
+        <v>2.457945353877489</v>
+      </c>
+      <c r="U61">
+        <v>0.109</v>
+      </c>
+      <c r="V61">
+        <v>0.198345222991963</v>
+      </c>
+      <c r="W61">
+        <v>0.08738037069387604</v>
+      </c>
+      <c r="X61" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y61">
+        <v>0.8623705347476652</v>
+      </c>
+      <c r="Z61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>0.6</v>
+      </c>
+      <c r="B62">
+        <v>0.110798522596179</v>
+      </c>
+      <c r="C62">
+        <v>5.33866543459844</v>
+      </c>
+      <c r="D62">
+        <v>87.99666543459843</v>
+      </c>
+      <c r="E62">
+        <v>90.52799999999998</v>
+      </c>
+      <c r="F62">
+        <v>93.25799999999998</v>
+      </c>
+      <c r="G62">
+        <v>10.6</v>
+      </c>
+      <c r="H62">
+        <v>152.7</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>10.4</v>
+      </c>
+      <c r="K62">
+        <v>1.78</v>
+      </c>
+      <c r="L62">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M62">
+        <v>10.165122</v>
+      </c>
+      <c r="N62">
+        <v>-1.545121999999997</v>
+      </c>
+      <c r="O62">
+        <v>-0.3553780599999994</v>
+      </c>
+      <c r="P62">
+        <v>-1.189743939999998</v>
+      </c>
+      <c r="Q62">
+        <v>0.590256060000002</v>
+      </c>
+      <c r="R62">
+        <v>1.5</v>
+      </c>
+      <c r="S62">
+        <v>0.1453852597169804</v>
+      </c>
+      <c r="T62">
+        <v>2.519393987724427</v>
+      </c>
+      <c r="U62">
+        <v>0.109</v>
+      </c>
+      <c r="V62">
+        <v>0.1950394692754303</v>
+      </c>
+      <c r="W62">
+        <v>0.0877406978489781</v>
+      </c>
+      <c r="X62" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y62">
+        <v>0.8479976925018708</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>0.61</v>
+      </c>
+      <c r="B63">
+        <v>0.111795522596179</v>
+      </c>
+      <c r="C63">
+        <v>2.928399503443075</v>
+      </c>
+      <c r="D63">
+        <v>87.14069950344306</v>
+      </c>
+      <c r="E63">
+        <v>92.08229999999998</v>
+      </c>
+      <c r="F63">
+        <v>94.81229999999998</v>
+      </c>
+      <c r="G63">
+        <v>10.6</v>
+      </c>
+      <c r="H63">
+        <v>152.7</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>10.4</v>
+      </c>
+      <c r="K63">
+        <v>1.78</v>
+      </c>
+      <c r="L63">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M63">
+        <v>10.3345407</v>
+      </c>
+      <c r="N63">
+        <v>-1.714540699999997</v>
+      </c>
+      <c r="O63">
+        <v>-0.3943443609999993</v>
+      </c>
+      <c r="P63">
+        <v>-1.320196338999998</v>
+      </c>
+      <c r="Q63">
+        <v>0.4598036610000023</v>
+      </c>
+      <c r="R63">
+        <v>1.564102564102564</v>
+      </c>
+      <c r="S63">
+        <v>0.1488746253507492</v>
+      </c>
+      <c r="T63">
+        <v>2.583993833563515</v>
+      </c>
+      <c r="U63">
+        <v>0.109</v>
+      </c>
+      <c r="V63">
+        <v>0.1918421009266528</v>
+      </c>
+      <c r="W63">
+        <v>0.08808921099899485</v>
+      </c>
+      <c r="X63" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y63">
+        <v>0.8340960909854468</v>
+      </c>
+      <c r="Z63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>0.62</v>
+      </c>
+      <c r="B64">
+        <v>0.112792522596179</v>
+      </c>
+      <c r="C64">
+        <v>0.5346255470111458</v>
+      </c>
+      <c r="D64">
+        <v>86.30122554701114</v>
+      </c>
+      <c r="E64">
+        <v>93.63659999999999</v>
+      </c>
+      <c r="F64">
+        <v>96.36659999999999</v>
+      </c>
+      <c r="G64">
+        <v>10.6</v>
+      </c>
+      <c r="H64">
+        <v>152.7</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>10.4</v>
+      </c>
+      <c r="K64">
+        <v>1.78</v>
+      </c>
+      <c r="L64">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M64">
+        <v>10.5039594</v>
+      </c>
+      <c r="N64">
+        <v>-1.883959399999998</v>
+      </c>
+      <c r="O64">
+        <v>-0.4333106619999996</v>
+      </c>
+      <c r="P64">
+        <v>-1.450648737999999</v>
+      </c>
+      <c r="Q64">
+        <v>0.3293512620000012</v>
+      </c>
+      <c r="R64">
+        <v>1.631578947368421</v>
+      </c>
+      <c r="S64">
+        <v>0.1525476418073478</v>
+      </c>
+      <c r="T64">
+        <v>2.65199367128887</v>
+      </c>
+      <c r="U64">
+        <v>0.109</v>
+      </c>
+      <c r="V64">
+        <v>0.1887478734923519</v>
+      </c>
+      <c r="W64">
+        <v>0.08842648178933364</v>
+      </c>
+      <c r="X64" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y64">
+        <v>0.8206429282276169</v>
+      </c>
+      <c r="Z64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>0.63</v>
+      </c>
+      <c r="B65">
+        <v>0.113789522596179</v>
+      </c>
+      <c r="C65">
+        <v>-1.843128515487507</v>
+      </c>
+      <c r="D65">
+        <v>85.47777148451249</v>
+      </c>
+      <c r="E65">
+        <v>95.19089999999998</v>
+      </c>
+      <c r="F65">
+        <v>97.92089999999999</v>
+      </c>
+      <c r="G65">
+        <v>10.6</v>
+      </c>
+      <c r="H65">
+        <v>152.7</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>10.4</v>
+      </c>
+      <c r="K65">
+        <v>1.78</v>
+      </c>
+      <c r="L65">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M65">
+        <v>10.6733781</v>
+      </c>
+      <c r="N65">
+        <v>-2.053378099999998</v>
+      </c>
+      <c r="O65">
+        <v>-0.4722769629999995</v>
+      </c>
+      <c r="P65">
+        <v>-1.581101136999998</v>
+      </c>
+      <c r="Q65">
+        <v>0.1988988630000017</v>
+      </c>
+      <c r="R65">
+        <v>1.702702702702703</v>
+      </c>
+      <c r="S65">
+        <v>0.1564191996940329</v>
+      </c>
+      <c r="T65">
+        <v>2.723669175918299</v>
+      </c>
+      <c r="U65">
+        <v>0.109</v>
+      </c>
+      <c r="V65">
+        <v>0.1857518755004098</v>
+      </c>
+      <c r="W65">
+        <v>0.08875304557045532</v>
+      </c>
+      <c r="X65" t="inlineStr">
+        <is>
+          <t>Ca2/CC</t>
+        </is>
+      </c>
+      <c r="Y65">
+        <v>0.8076168500017817</v>
+      </c>
+      <c r="Z65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>0.64</v>
+      </c>
+      <c r="B66">
+        <v>0.1363599932043022</v>
+      </c>
+      <c r="C66">
+        <v>-18.58138595389963</v>
+      </c>
+      <c r="D66">
+        <v>70.29381404610037</v>
+      </c>
+      <c r="E66">
+        <v>96.74519999999998</v>
+      </c>
+      <c r="F66">
+        <v>99.47519999999999</v>
+      </c>
+      <c r="G66">
+        <v>10.6</v>
+      </c>
+      <c r="H66">
+        <v>152.7</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>10.4</v>
+      </c>
+      <c r="K66">
+        <v>1.78</v>
+      </c>
+      <c r="L66">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M66">
+        <v>13.94642304</v>
+      </c>
+      <c r="N66">
+        <v>-5.326423039999996</v>
+      </c>
+      <c r="O66">
+        <v>-1.225077299199999</v>
+      </c>
+      <c r="P66">
+        <v>-4.101345740799998</v>
+      </c>
+      <c r="Q66">
+        <v>-2.321345740799997</v>
+      </c>
+      <c r="R66">
+        <v>1.777777777777778</v>
+      </c>
+      <c r="S66">
+        <v>0.1649654847080982</v>
+      </c>
+      <c r="T66">
+        <v>2.881889538113255</v>
+      </c>
+      <c r="U66">
+        <v>0.1402</v>
+      </c>
+      <c r="V66">
+        <v>0.1421583150255566</v>
+      </c>
+      <c r="W66">
+        <v>0.120269404233417</v>
+      </c>
+      <c r="X66" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y66">
+        <v>0.6180796305458982</v>
+      </c>
+      <c r="Z66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>0.65</v>
+      </c>
+      <c r="B67">
+        <v>0.1376689932043022</v>
+      </c>
+      <c r="C67">
+        <v>-20.85248368121297</v>
+      </c>
+      <c r="D67">
+        <v>69.57701631878702</v>
+      </c>
+      <c r="E67">
+        <v>98.29949999999998</v>
+      </c>
+      <c r="F67">
+        <v>101.0295</v>
+      </c>
+      <c r="G67">
+        <v>10.6</v>
+      </c>
+      <c r="H67">
+        <v>152.7</v>
+      </c>
+      <c r="I67">
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <v>10.4</v>
+      </c>
+      <c r="K67">
+        <v>1.78</v>
+      </c>
+      <c r="L67">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M67">
+        <v>14.1643359</v>
+      </c>
+      <c r="N67">
+        <v>-5.544335899999997</v>
+      </c>
+      <c r="O67">
+        <v>-1.275197256999999</v>
+      </c>
+      <c r="P67">
+        <v>-4.269138642999997</v>
+      </c>
+      <c r="Q67">
+        <v>-2.489138642999997</v>
+      </c>
+      <c r="R67">
+        <v>1.857142857142857</v>
+      </c>
+      <c r="S67">
+        <v>0.1694130699854724</v>
+      </c>
+      <c r="T67">
+        <v>2.964229239202206</v>
+      </c>
+      <c r="U67">
+        <v>0.1402</v>
+      </c>
+      <c r="V67">
+        <v>0.1399712640251634</v>
+      </c>
+      <c r="W67">
+        <v>0.1205760287836721</v>
+      </c>
+      <c r="X67" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y67">
+        <v>0.6085707131528844</v>
+      </c>
+      <c r="Z67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>0.66</v>
+      </c>
+      <c r="B68">
+        <v>0.1389779932043022</v>
+      </c>
+      <c r="C68">
+        <v>-23.10911036063501</v>
+      </c>
+      <c r="D68">
+        <v>68.87468963936499</v>
+      </c>
+      <c r="E68">
+        <v>99.85379999999999</v>
+      </c>
+      <c r="F68">
+        <v>102.5838</v>
+      </c>
+      <c r="G68">
+        <v>10.6</v>
+      </c>
+      <c r="H68">
+        <v>152.7</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>10.4</v>
+      </c>
+      <c r="K68">
+        <v>1.78</v>
+      </c>
+      <c r="L68">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M68">
+        <v>14.38224876</v>
+      </c>
+      <c r="N68">
+        <v>-5.762248759999997</v>
+      </c>
+      <c r="O68">
+        <v>-1.325317214799999</v>
+      </c>
+      <c r="P68">
+        <v>-4.436931545199998</v>
+      </c>
+      <c r="Q68">
+        <v>-2.656931545199997</v>
+      </c>
+      <c r="R68">
+        <v>1.941176470588236</v>
+      </c>
+      <c r="S68">
+        <v>0.1741222779262216</v>
+      </c>
+      <c r="T68">
+        <v>3.051412452119918</v>
+      </c>
+      <c r="U68">
+        <v>0.1402</v>
+      </c>
+      <c r="V68">
+        <v>0.1378504872975094</v>
+      </c>
+      <c r="W68">
+        <v>0.1208733616808892</v>
+      </c>
+      <c r="X68" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y68">
+        <v>0.5993499447717801</v>
+      </c>
+      <c r="Z68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>0.67</v>
+      </c>
+      <c r="B69">
+        <v>0.1402869932043022</v>
+      </c>
+      <c r="C69">
+        <v>-25.3516998352801</v>
+      </c>
+      <c r="D69">
+        <v>68.1864001647199</v>
+      </c>
+      <c r="E69">
+        <v>101.4081</v>
+      </c>
+      <c r="F69">
+        <v>104.1381</v>
+      </c>
+      <c r="G69">
+        <v>10.6</v>
+      </c>
+      <c r="H69">
+        <v>152.7</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>10.4</v>
+      </c>
+      <c r="K69">
+        <v>1.78</v>
+      </c>
+      <c r="L69">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M69">
+        <v>14.60016162</v>
+      </c>
+      <c r="N69">
+        <v>-5.980161619999997</v>
+      </c>
+      <c r="O69">
+        <v>-1.375437172599999</v>
+      </c>
+      <c r="P69">
+        <v>-4.604724447399997</v>
+      </c>
+      <c r="Q69">
+        <v>-2.824724447399997</v>
+      </c>
+      <c r="R69">
+        <v>2.030303030303031</v>
+      </c>
+      <c r="S69">
+        <v>0.1791168924088344</v>
+      </c>
+      <c r="T69">
+        <v>3.143879496123552</v>
+      </c>
+      <c r="U69">
+        <v>0.1402</v>
+      </c>
+      <c r="V69">
+        <v>0.1357930173378451</v>
+      </c>
+      <c r="W69">
+        <v>0.1211618189692341</v>
+      </c>
+      <c r="X69" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y69">
+        <v>0.5904044232080221</v>
+      </c>
+      <c r="Z69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>0.68</v>
+      </c>
+      <c r="B70">
+        <v>0.1415959932043022</v>
+      </c>
+      <c r="C70">
+        <v>-27.58066877765528</v>
+      </c>
+      <c r="D70">
+        <v>67.51173122234472</v>
+      </c>
+      <c r="E70">
+        <v>102.9624</v>
+      </c>
+      <c r="F70">
+        <v>105.6924</v>
+      </c>
+      <c r="G70">
+        <v>10.6</v>
+      </c>
+      <c r="H70">
+        <v>152.7</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>10.4</v>
+      </c>
+      <c r="K70">
+        <v>1.78</v>
+      </c>
+      <c r="L70">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M70">
+        <v>14.81807448</v>
+      </c>
+      <c r="N70">
+        <v>-6.198074479999997</v>
+      </c>
+      <c r="O70">
+        <v>-1.425557130399999</v>
+      </c>
+      <c r="P70">
+        <v>-4.772517349599998</v>
+      </c>
+      <c r="Q70">
+        <v>-2.992517349599997</v>
+      </c>
+      <c r="R70">
+        <v>2.125</v>
+      </c>
+      <c r="S70">
+        <v>0.1844236702966104</v>
+      </c>
+      <c r="T70">
+        <v>3.242125730377413</v>
+      </c>
+      <c r="U70">
+        <v>0.1402</v>
+      </c>
+      <c r="V70">
+        <v>0.1337960612005238</v>
+      </c>
+      <c r="W70">
+        <v>0.1214417922196866</v>
+      </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y70">
+        <v>0.5817220052196689</v>
+      </c>
+      <c r="Z70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>0.6900000000000001</v>
+      </c>
+      <c r="B71">
+        <v>0.1429049932043022</v>
+      </c>
+      <c r="C71">
+        <v>-29.79641753080863</v>
+      </c>
+      <c r="D71">
+        <v>66.85028246919137</v>
+      </c>
+      <c r="E71">
+        <v>104.5167</v>
+      </c>
+      <c r="F71">
+        <v>107.2467</v>
+      </c>
+      <c r="G71">
+        <v>10.6</v>
+      </c>
+      <c r="H71">
+        <v>152.7</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>10.4</v>
+      </c>
+      <c r="K71">
+        <v>1.78</v>
+      </c>
+      <c r="L71">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M71">
+        <v>15.03598734</v>
+      </c>
+      <c r="N71">
+        <v>-6.415987339999997</v>
+      </c>
+      <c r="O71">
+        <v>-1.475677088199999</v>
+      </c>
+      <c r="P71">
+        <v>-4.940310251799998</v>
+      </c>
+      <c r="Q71">
+        <v>-3.160310251799998</v>
+      </c>
+      <c r="R71">
+        <v>2.225806451612904</v>
+      </c>
+      <c r="S71">
+        <v>0.1900728209513398</v>
+      </c>
+      <c r="T71">
+        <v>3.34671043135733</v>
+      </c>
+      <c r="U71">
+        <v>0.1402</v>
+      </c>
+      <c r="V71">
+        <v>0.1318569878497916</v>
+      </c>
+      <c r="W71">
+        <v>0.1217136503034592</v>
+      </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y71">
+        <v>0.573291251520833</v>
+      </c>
+      <c r="Z71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="B72">
+        <v>0.1442139932043022</v>
+      </c>
+      <c r="C72">
+        <v>-31.99933090051047</v>
+      </c>
+      <c r="D72">
+        <v>66.20166909948954</v>
+      </c>
+      <c r="E72">
+        <v>106.071</v>
+      </c>
+      <c r="F72">
+        <v>108.801</v>
+      </c>
+      <c r="G72">
+        <v>10.6</v>
+      </c>
+      <c r="H72">
+        <v>152.7</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>10.4</v>
+      </c>
+      <c r="K72">
+        <v>1.78</v>
+      </c>
+      <c r="L72">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M72">
+        <v>15.2539002</v>
+      </c>
+      <c r="N72">
+        <v>-6.633900199999998</v>
+      </c>
+      <c r="O72">
+        <v>-1.525797045999999</v>
+      </c>
+      <c r="P72">
+        <v>-5.108103153999998</v>
+      </c>
+      <c r="Q72">
+        <v>-3.328103153999998</v>
+      </c>
+      <c r="R72">
+        <v>2.333333333333334</v>
+      </c>
+      <c r="S72">
+        <v>0.1960985816497178</v>
+      </c>
+      <c r="T72">
+        <v>3.458267445735907</v>
+      </c>
+      <c r="U72">
+        <v>0.1402</v>
+      </c>
+      <c r="V72">
+        <v>0.1299733165947946</v>
+      </c>
+      <c r="W72">
+        <v>0.1219777410134098</v>
+      </c>
+      <c r="X72" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y72">
+        <v>0.5651013764991069</v>
+      </c>
+      <c r="Z72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>0.71</v>
+      </c>
+      <c r="B73">
+        <v>0.1455229932043022</v>
+      </c>
+      <c r="C73">
+        <v>-34.1897789017606</v>
+      </c>
+      <c r="D73">
+        <v>65.56552109823939</v>
+      </c>
+      <c r="E73">
+        <v>107.6253</v>
+      </c>
+      <c r="F73">
+        <v>110.3553</v>
+      </c>
+      <c r="G73">
+        <v>10.6</v>
+      </c>
+      <c r="H73">
+        <v>152.7</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>10.4</v>
+      </c>
+      <c r="K73">
+        <v>1.78</v>
+      </c>
+      <c r="L73">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M73">
+        <v>15.47181306</v>
+      </c>
+      <c r="N73">
+        <v>-6.851813059999996</v>
+      </c>
+      <c r="O73">
+        <v>-1.575917003799999</v>
+      </c>
+      <c r="P73">
+        <v>-5.275896056199997</v>
+      </c>
+      <c r="Q73">
+        <v>-3.495896056199997</v>
+      </c>
+      <c r="R73">
+        <v>2.448275862068965</v>
+      </c>
+      <c r="S73">
+        <v>0.2025399120514322</v>
+      </c>
+      <c r="T73">
+        <v>3.577518047313006</v>
+      </c>
+      <c r="U73">
+        <v>0.1402</v>
+      </c>
+      <c r="V73">
+        <v>0.1281427065019102</v>
+      </c>
+      <c r="W73">
+        <v>0.1222343925484322</v>
+      </c>
+      <c r="X73" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y73">
+        <v>0.5571422021822181</v>
+      </c>
+      <c r="Z73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>0.72</v>
+      </c>
+      <c r="B74">
+        <v>0.1468319932043022</v>
+      </c>
+      <c r="C74">
+        <v>-36.36811746266551</v>
+      </c>
+      <c r="D74">
+        <v>64.94148253733448</v>
+      </c>
+      <c r="E74">
+        <v>109.1796</v>
+      </c>
+      <c r="F74">
+        <v>111.9096</v>
+      </c>
+      <c r="G74">
+        <v>10.6</v>
+      </c>
+      <c r="H74">
+        <v>152.7</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>10.4</v>
+      </c>
+      <c r="K74">
+        <v>1.78</v>
+      </c>
+      <c r="L74">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M74">
+        <v>15.68972592</v>
+      </c>
+      <c r="N74">
+        <v>-7.069725919999996</v>
+      </c>
+      <c r="O74">
+        <v>-1.626036961599999</v>
+      </c>
+      <c r="P74">
+        <v>-5.443688958399997</v>
+      </c>
+      <c r="Q74">
+        <v>-3.663688958399997</v>
+      </c>
+      <c r="R74">
+        <v>2.571428571428571</v>
+      </c>
+      <c r="S74">
+        <v>0.2094413374818405</v>
+      </c>
+      <c r="T74">
+        <v>3.705286549002757</v>
+      </c>
+      <c r="U74">
+        <v>0.1402</v>
+      </c>
+      <c r="V74">
+        <v>0.1263629466893836</v>
+      </c>
+      <c r="W74">
+        <v>0.1224839148741484</v>
+      </c>
+      <c r="X74" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y74">
+        <v>0.5494041160407984</v>
+      </c>
+      <c r="Z74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>0.73</v>
+      </c>
+      <c r="B75">
+        <v>0.1481409932043022</v>
+      </c>
+      <c r="C75">
+        <v>-38.53468908849783</v>
+      </c>
+      <c r="D75">
+        <v>64.32921091150216</v>
+      </c>
+      <c r="E75">
+        <v>110.7339</v>
+      </c>
+      <c r="F75">
+        <v>113.4639</v>
+      </c>
+      <c r="G75">
+        <v>10.6</v>
+      </c>
+      <c r="H75">
+        <v>152.7</v>
+      </c>
+      <c r="I75">
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>10.4</v>
+      </c>
+      <c r="K75">
+        <v>1.78</v>
+      </c>
+      <c r="L75">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M75">
+        <v>15.90763878</v>
+      </c>
+      <c r="N75">
+        <v>-7.287638779999995</v>
+      </c>
+      <c r="O75">
+        <v>-1.676156919399999</v>
+      </c>
+      <c r="P75">
+        <v>-5.611481860599996</v>
+      </c>
+      <c r="Q75">
+        <v>-3.831481860599996</v>
+      </c>
+      <c r="R75">
+        <v>2.703703703703703</v>
+      </c>
+      <c r="S75">
+        <v>0.2168539796107975</v>
+      </c>
+      <c r="T75">
+        <v>3.842519384151007</v>
+      </c>
+      <c r="U75">
+        <v>0.1402</v>
+      </c>
+      <c r="V75">
+        <v>0.1246319474196661</v>
+      </c>
+      <c r="W75">
+        <v>0.1227266009717628</v>
+      </c>
+      <c r="X75" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y75">
+        <v>0.5418780322594177</v>
+      </c>
+      <c r="Z75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>0.74</v>
+      </c>
+      <c r="B76">
+        <v>0.1494499932043022</v>
+      </c>
+      <c r="C76">
+        <v>-40.68982348854239</v>
+      </c>
+      <c r="D76">
+        <v>63.72837651145759</v>
+      </c>
+      <c r="E76">
+        <v>112.2882</v>
+      </c>
+      <c r="F76">
+        <v>115.0182</v>
+      </c>
+      <c r="G76">
+        <v>10.6</v>
+      </c>
+      <c r="H76">
+        <v>152.7</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>10.4</v>
+      </c>
+      <c r="K76">
+        <v>1.78</v>
+      </c>
+      <c r="L76">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M76">
+        <v>16.12555164</v>
+      </c>
+      <c r="N76">
+        <v>-7.505551639999997</v>
+      </c>
+      <c r="O76">
+        <v>-1.726276877199999</v>
+      </c>
+      <c r="P76">
+        <v>-5.779274762799997</v>
+      </c>
+      <c r="Q76">
+        <v>-3.999274762799997</v>
+      </c>
+      <c r="R76">
+        <v>2.846153846153846</v>
+      </c>
+      <c r="S76">
+        <v>0.2248368249804436</v>
+      </c>
+      <c r="T76">
+        <v>3.990308591233738</v>
+      </c>
+      <c r="U76">
+        <v>0.1402</v>
+      </c>
+      <c r="V76">
+        <v>0.1229477319139949</v>
+      </c>
+      <c r="W76">
+        <v>0.1229627279856579</v>
+      </c>
+      <c r="X76" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y76">
+        <v>0.5345553561478038</v>
+      </c>
+      <c r="Z76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>0.75</v>
+      </c>
+      <c r="B77">
+        <v>0.1507589932043022</v>
+      </c>
+      <c r="C77">
+        <v>-42.83383816813874</v>
+      </c>
+      <c r="D77">
+        <v>63.13866183186125</v>
+      </c>
+      <c r="E77">
+        <v>113.8425</v>
+      </c>
+      <c r="F77">
+        <v>116.5725</v>
+      </c>
+      <c r="G77">
+        <v>10.6</v>
+      </c>
+      <c r="H77">
+        <v>152.7</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>10.4</v>
+      </c>
+      <c r="K77">
+        <v>1.78</v>
+      </c>
+      <c r="L77">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M77">
+        <v>16.3434645</v>
+      </c>
+      <c r="N77">
+        <v>-7.723464499999995</v>
+      </c>
+      <c r="O77">
+        <v>-1.776396834999999</v>
+      </c>
+      <c r="P77">
+        <v>-5.947067664999996</v>
+      </c>
+      <c r="Q77">
+        <v>-4.167067664999996</v>
+      </c>
+      <c r="R77">
+        <v>3</v>
+      </c>
+      <c r="S77">
+        <v>0.2334582979796614</v>
+      </c>
+      <c r="T77">
+        <v>4.149920934883088</v>
+      </c>
+      <c r="U77">
+        <v>0.1402</v>
+      </c>
+      <c r="V77">
+        <v>0.1213084288218083</v>
+      </c>
+      <c r="W77">
+        <v>0.1231925582791825</v>
+      </c>
+      <c r="X77" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y77">
+        <v>0.5274279513991664</v>
+      </c>
+      <c r="Z77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>0.76</v>
+      </c>
+      <c r="B78">
+        <v>0.1520679932043022</v>
+      </c>
+      <c r="C78">
+        <v>-44.96703898815403</v>
+      </c>
+      <c r="D78">
+        <v>62.55976101184596</v>
+      </c>
+      <c r="E78">
+        <v>115.3968</v>
+      </c>
+      <c r="F78">
+        <v>118.1268</v>
+      </c>
+      <c r="G78">
+        <v>10.6</v>
+      </c>
+      <c r="H78">
+        <v>152.7</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>10.4</v>
+      </c>
+      <c r="K78">
+        <v>1.78</v>
+      </c>
+      <c r="L78">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M78">
+        <v>16.56137736</v>
+      </c>
+      <c r="N78">
+        <v>-7.941377359999997</v>
+      </c>
+      <c r="O78">
+        <v>-1.826516792799999</v>
+      </c>
+      <c r="P78">
+        <v>-6.114860567199997</v>
+      </c>
+      <c r="Q78">
+        <v>-4.334860567199997</v>
+      </c>
+      <c r="R78">
+        <v>3.166666666666667</v>
+      </c>
+      <c r="S78">
+        <v>0.2427982270621472</v>
+      </c>
+      <c r="T78">
+        <v>4.322834307169884</v>
+      </c>
+      <c r="U78">
+        <v>0.1402</v>
+      </c>
+      <c r="V78">
+        <v>0.1197122652846792</v>
+      </c>
+      <c r="W78">
+        <v>0.123416340407088</v>
+      </c>
+      <c r="X78" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y78">
+        <v>0.520488109933388</v>
+      </c>
+      <c r="Z78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>0.77</v>
+      </c>
+      <c r="B79">
+        <v>0.1533769932043022</v>
+      </c>
+      <c r="C79">
+        <v>-47.08972069395757</v>
+      </c>
+      <c r="D79">
+        <v>61.99137930604241</v>
+      </c>
+      <c r="E79">
+        <v>116.9511</v>
+      </c>
+      <c r="F79">
+        <v>119.6811</v>
+      </c>
+      <c r="G79">
+        <v>10.6</v>
+      </c>
+      <c r="H79">
+        <v>152.7</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>10.4</v>
+      </c>
+      <c r="K79">
+        <v>1.78</v>
+      </c>
+      <c r="L79">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M79">
+        <v>16.77929022</v>
+      </c>
+      <c r="N79">
+        <v>-8.159290219999995</v>
+      </c>
+      <c r="O79">
+        <v>-1.876636750599999</v>
+      </c>
+      <c r="P79">
+        <v>-6.282653469399996</v>
+      </c>
+      <c r="Q79">
+        <v>-4.502653469399996</v>
+      </c>
+      <c r="R79">
+        <v>3.347826086956522</v>
+      </c>
+      <c r="S79">
+        <v>0.2529503238909362</v>
+      </c>
+      <c r="T79">
+        <v>4.510783624872922</v>
+      </c>
+      <c r="U79">
+        <v>0.1402</v>
+      </c>
+      <c r="V79">
+        <v>0.1181575605407224</v>
+      </c>
+      <c r="W79">
+        <v>0.1236343100121907</v>
+      </c>
+      <c r="X79" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y79">
+        <v>0.5137285240900973</v>
+      </c>
+      <c r="Z79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>0.78</v>
+      </c>
+      <c r="B80">
+        <v>0.1546859932043022</v>
+      </c>
+      <c r="C80">
+        <v>-49.20216741581939</v>
+      </c>
+      <c r="D80">
+        <v>61.43323258418059</v>
+      </c>
+      <c r="E80">
+        <v>118.5054</v>
+      </c>
+      <c r="F80">
+        <v>121.2354</v>
+      </c>
+      <c r="G80">
+        <v>10.6</v>
+      </c>
+      <c r="H80">
+        <v>152.7</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>10.4</v>
+      </c>
+      <c r="K80">
+        <v>1.78</v>
+      </c>
+      <c r="L80">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M80">
+        <v>16.99720308</v>
+      </c>
+      <c r="N80">
+        <v>-8.377203079999997</v>
+      </c>
+      <c r="O80">
+        <v>-1.926756708399999</v>
+      </c>
+      <c r="P80">
+        <v>-6.450446371599998</v>
+      </c>
+      <c r="Q80">
+        <v>-4.670446371599998</v>
+      </c>
+      <c r="R80">
+        <v>3.545454545454546</v>
+      </c>
+      <c r="S80">
+        <v>0.2640253386132515</v>
+      </c>
+      <c r="T80">
+        <v>4.715819244185327</v>
+      </c>
+      <c r="U80">
+        <v>0.1402</v>
+      </c>
+      <c r="V80">
+        <v>0.1166427200209695</v>
+      </c>
+      <c r="W80">
+        <v>0.1238466906530601</v>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y80">
+        <v>0.507142260960737</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>0.79</v>
+      </c>
+      <c r="B81">
+        <v>0.1559949932043022</v>
+      </c>
+      <c r="C81">
+        <v>-51.30465314251764</v>
+      </c>
+      <c r="D81">
+        <v>60.88504685748234</v>
+      </c>
+      <c r="E81">
+        <v>120.0597</v>
+      </c>
+      <c r="F81">
+        <v>122.7897</v>
+      </c>
+      <c r="G81">
+        <v>10.6</v>
+      </c>
+      <c r="H81">
+        <v>152.7</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>10.4</v>
+      </c>
+      <c r="K81">
+        <v>1.78</v>
+      </c>
+      <c r="L81">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M81">
+        <v>17.21511594</v>
+      </c>
+      <c r="N81">
+        <v>-8.595115939999996</v>
+      </c>
+      <c r="O81">
+        <v>-1.976876666199999</v>
+      </c>
+      <c r="P81">
+        <v>-6.618239273799997</v>
+      </c>
+      <c r="Q81">
+        <v>-4.838239273799997</v>
+      </c>
+      <c r="R81">
+        <v>3.761904761904763</v>
+      </c>
+      <c r="S81">
+        <v>0.276155116642454</v>
+      </c>
+      <c r="T81">
+        <v>4.94038206533701</v>
+      </c>
+      <c r="U81">
+        <v>0.1402</v>
+      </c>
+      <c r="V81">
+        <v>0.1151662298941218</v>
+      </c>
+      <c r="W81">
+        <v>0.1240536945688441</v>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>C2/C</t>
+        </is>
+      </c>
+      <c r="Y81">
+        <v>0.5007227386700948</v>
+      </c>
+      <c r="Z81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>0.8</v>
+      </c>
+      <c r="B82">
+        <v>0.1934321653370326</v>
+      </c>
+      <c r="C82">
+        <v>-65.23790917847589</v>
+      </c>
+      <c r="D82">
+        <v>48.5060908215241</v>
+      </c>
+      <c r="E82">
+        <v>121.614</v>
+      </c>
+      <c r="F82">
+        <v>124.344</v>
+      </c>
+      <c r="G82">
+        <v>10.6</v>
+      </c>
+      <c r="H82">
+        <v>152.7</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>10.4</v>
+      </c>
+      <c r="K82">
+        <v>1.78</v>
+      </c>
+      <c r="L82">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M82">
+        <v>22.8419928</v>
+      </c>
+      <c r="N82">
+        <v>-14.2219928</v>
+      </c>
+      <c r="O82">
+        <v>-3.271058344</v>
+      </c>
+      <c r="P82">
+        <v>-10.950934456</v>
+      </c>
+      <c r="Q82">
+        <v>-9.170934455999999</v>
+      </c>
+      <c r="R82">
+        <v>4.000000000000001</v>
+      </c>
+      <c r="S82">
+        <v>0.2961387331382284</v>
+      </c>
+      <c r="T82">
+        <v>5.310345743674779</v>
+      </c>
+      <c r="U82">
+        <v>0.1837</v>
+      </c>
+      <c r="V82">
+        <v>0.08679627987624619</v>
+      </c>
+      <c r="W82">
+        <v>0.1677555233867336</v>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y82">
+        <v>0.3773751298967225</v>
+      </c>
+      <c r="Z82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="B83">
+        <v>0.1951761653370325</v>
+      </c>
+      <c r="C83">
+        <v>-67.24732198026706</v>
+      </c>
+      <c r="D83">
+        <v>48.05097801973294</v>
+      </c>
+      <c r="E83">
+        <v>123.1683</v>
+      </c>
+      <c r="F83">
+        <v>125.8983</v>
+      </c>
+      <c r="G83">
+        <v>10.6</v>
+      </c>
+      <c r="H83">
+        <v>152.7</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>10.4</v>
+      </c>
+      <c r="K83">
+        <v>1.78</v>
+      </c>
+      <c r="L83">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M83">
+        <v>23.12751771</v>
+      </c>
+      <c r="N83">
+        <v>-14.50751771</v>
+      </c>
+      <c r="O83">
+        <v>-3.3367290733</v>
+      </c>
+      <c r="P83">
+        <v>-11.1707886367</v>
+      </c>
+      <c r="Q83">
+        <v>-9.3907886367</v>
+      </c>
+      <c r="R83">
+        <v>4.263157894736843</v>
+      </c>
+      <c r="S83">
+        <v>0.3112355085665561</v>
+      </c>
+      <c r="T83">
+        <v>5.589837624920819</v>
+      </c>
+      <c r="U83">
+        <v>0.1837</v>
+      </c>
+      <c r="V83">
+        <v>0.08572472086542833</v>
+      </c>
+      <c r="W83">
+        <v>0.1679523687770208</v>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y83">
+        <v>0.3727161776757754</v>
+      </c>
+      <c r="Z83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>0.8200000000000001</v>
+      </c>
+      <c r="B84">
+        <v>0.1969201653370325</v>
+      </c>
+      <c r="C84">
+        <v>-69.24827389274074</v>
+      </c>
+      <c r="D84">
+        <v>47.60432610725924</v>
+      </c>
+      <c r="E84">
+        <v>124.7226</v>
+      </c>
+      <c r="F84">
+        <v>127.4526</v>
+      </c>
+      <c r="G84">
+        <v>10.6</v>
+      </c>
+      <c r="H84">
+        <v>152.7</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>10.4</v>
+      </c>
+      <c r="K84">
+        <v>1.78</v>
+      </c>
+      <c r="L84">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M84">
+        <v>23.41304262</v>
+      </c>
+      <c r="N84">
+        <v>-14.79304262</v>
+      </c>
+      <c r="O84">
+        <v>-3.4023998026</v>
+      </c>
+      <c r="P84">
+        <v>-11.3906428174</v>
+      </c>
+      <c r="Q84">
+        <v>-9.610642817399999</v>
+      </c>
+      <c r="R84">
+        <v>4.555555555555557</v>
+      </c>
+      <c r="S84">
+        <v>0.3280097034869204</v>
+      </c>
+      <c r="T84">
+        <v>5.900384159638643</v>
+      </c>
+      <c r="U84">
+        <v>0.1837</v>
+      </c>
+      <c r="V84">
+        <v>0.08467929744024018</v>
+      </c>
+      <c r="W84">
+        <v>0.1681444130602279</v>
+      </c>
+      <c r="X84" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y84">
+        <v>0.3681708584358269</v>
+      </c>
+      <c r="Z84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>0.8300000000000001</v>
+      </c>
+      <c r="B85">
+        <v>0.1986641653370325</v>
+      </c>
+      <c r="C85">
+        <v>-71.24099868437594</v>
+      </c>
+      <c r="D85">
+        <v>47.16590131562405</v>
+      </c>
+      <c r="E85">
+        <v>126.2769</v>
+      </c>
+      <c r="F85">
+        <v>129.0069</v>
+      </c>
+      <c r="G85">
+        <v>10.6</v>
+      </c>
+      <c r="H85">
+        <v>152.7</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>10.4</v>
+      </c>
+      <c r="K85">
+        <v>1.78</v>
+      </c>
+      <c r="L85">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M85">
+        <v>23.69856753</v>
+      </c>
+      <c r="N85">
+        <v>-15.07856753</v>
+      </c>
+      <c r="O85">
+        <v>-3.4680705319</v>
+      </c>
+      <c r="P85">
+        <v>-11.6104969981</v>
+      </c>
+      <c r="Q85">
+        <v>-9.830496998100001</v>
+      </c>
+      <c r="R85">
+        <v>4.882352941176473</v>
+      </c>
+      <c r="S85">
+        <v>0.3467573331037981</v>
+      </c>
+      <c r="T85">
+        <v>6.247465580793858</v>
+      </c>
+      <c r="U85">
+        <v>0.1837</v>
+      </c>
+      <c r="V85">
+        <v>0.08365906494096018</v>
+      </c>
+      <c r="W85">
+        <v>0.1683318297703456</v>
+      </c>
+      <c r="X85" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y85">
+        <v>0.3637350649606964</v>
+      </c>
+      <c r="Z85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>0.84</v>
+      </c>
+      <c r="B86">
+        <v>0.2004081653370325</v>
+      </c>
+      <c r="C86">
+        <v>-73.22572159042696</v>
+      </c>
+      <c r="D86">
+        <v>46.73547840957303</v>
+      </c>
+      <c r="E86">
+        <v>127.8312</v>
+      </c>
+      <c r="F86">
+        <v>130.5612</v>
+      </c>
+      <c r="G86">
+        <v>10.6</v>
+      </c>
+      <c r="H86">
+        <v>152.7</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>10.4</v>
+      </c>
+      <c r="K86">
+        <v>1.78</v>
+      </c>
+      <c r="L86">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M86">
+        <v>23.98409244</v>
+      </c>
+      <c r="N86">
+        <v>-15.36409244</v>
+      </c>
+      <c r="O86">
+        <v>-3.533741261199999</v>
+      </c>
+      <c r="P86">
+        <v>-11.8303511788</v>
+      </c>
+      <c r="Q86">
+        <v>-10.0503511788</v>
+      </c>
+      <c r="R86">
+        <v>5.249999999999999</v>
+      </c>
+      <c r="S86">
+        <v>0.3678484164227853</v>
+      </c>
+      <c r="T86">
+        <v>6.63793217959347</v>
+      </c>
+      <c r="U86">
+        <v>0.1837</v>
+      </c>
+      <c r="V86">
+        <v>0.08266312369166304</v>
+      </c>
+      <c r="W86">
+        <v>0.1685147841778415</v>
+      </c>
+      <c r="X86" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y86">
+        <v>0.3594048856159263</v>
+      </c>
+      <c r="Z86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>0.85</v>
+      </c>
+      <c r="B87">
+        <v>0.2021521653370325</v>
+      </c>
+      <c r="C87">
+        <v>-75.20265969876166</v>
+      </c>
+      <c r="D87">
+        <v>46.31284030123831</v>
+      </c>
+      <c r="E87">
+        <v>129.3855</v>
+      </c>
+      <c r="F87">
+        <v>132.1155</v>
+      </c>
+      <c r="G87">
+        <v>10.6</v>
+      </c>
+      <c r="H87">
+        <v>152.7</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>10.4</v>
+      </c>
+      <c r="K87">
+        <v>1.78</v>
+      </c>
+      <c r="L87">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M87">
+        <v>24.26961734999999</v>
+      </c>
+      <c r="N87">
+        <v>-15.64961734999999</v>
+      </c>
+      <c r="O87">
+        <v>-3.599411990499998</v>
+      </c>
+      <c r="P87">
+        <v>-12.05020535949999</v>
+      </c>
+      <c r="Q87">
+        <v>-10.27020535949999</v>
+      </c>
+      <c r="R87">
+        <v>5.666666666666666</v>
+      </c>
+      <c r="S87">
+        <v>0.3917516441843044</v>
+      </c>
+      <c r="T87">
+        <v>7.080460991566369</v>
+      </c>
+      <c r="U87">
+        <v>0.1837</v>
+      </c>
+      <c r="V87">
+        <v>0.08169061635411408</v>
+      </c>
+      <c r="W87">
+        <v>0.1686934337757492</v>
+      </c>
+      <c r="X87" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y87">
+        <v>0.3551765928439743</v>
+      </c>
+      <c r="Z87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>0.86</v>
+      </c>
+      <c r="B88">
+        <v>0.2038961653370325</v>
+      </c>
+      <c r="C88">
+        <v>-77.17202231495182</v>
+      </c>
+      <c r="D88">
+        <v>45.89777768504817</v>
+      </c>
+      <c r="E88">
+        <v>130.9398</v>
+      </c>
+      <c r="F88">
+        <v>133.6698</v>
+      </c>
+      <c r="G88">
+        <v>10.6</v>
+      </c>
+      <c r="H88">
+        <v>152.7</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>10.4</v>
+      </c>
+      <c r="K88">
+        <v>1.78</v>
+      </c>
+      <c r="L88">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M88">
+        <v>24.55514226</v>
+      </c>
+      <c r="N88">
+        <v>-15.93514226</v>
+      </c>
+      <c r="O88">
+        <v>-3.665082719799999</v>
+      </c>
+      <c r="P88">
+        <v>-12.2700595402</v>
+      </c>
+      <c r="Q88">
+        <v>-10.4900595402</v>
+      </c>
+      <c r="R88">
+        <v>6.142857142857142</v>
+      </c>
+      <c r="S88">
+        <v>0.4190696187688975</v>
+      </c>
+      <c r="T88">
+        <v>7.586208205249681</v>
+      </c>
+      <c r="U88">
+        <v>0.1837</v>
+      </c>
+      <c r="V88">
+        <v>0.08074072546627553</v>
+      </c>
+      <c r="W88">
+        <v>0.1688679287318452</v>
+      </c>
+      <c r="X88" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y88">
+        <v>0.3510466324620676</v>
+      </c>
+      <c r="Z88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>0.87</v>
+      </c>
+      <c r="B89">
+        <v>0.2056401653370325</v>
+      </c>
+      <c r="C89">
+        <v>-79.13401130790606</v>
+      </c>
+      <c r="D89">
+        <v>45.49008869209392</v>
+      </c>
+      <c r="E89">
+        <v>132.4941</v>
+      </c>
+      <c r="F89">
+        <v>135.2241</v>
+      </c>
+      <c r="G89">
+        <v>10.6</v>
+      </c>
+      <c r="H89">
+        <v>152.7</v>
+      </c>
+      <c r="I89">
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>10.4</v>
+      </c>
+      <c r="K89">
+        <v>1.78</v>
+      </c>
+      <c r="L89">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M89">
+        <v>24.84066717</v>
+      </c>
+      <c r="N89">
+        <v>-16.22066717</v>
+      </c>
+      <c r="O89">
+        <v>-3.7307534491</v>
+      </c>
+      <c r="P89">
+        <v>-12.4899137209</v>
+      </c>
+      <c r="Q89">
+        <v>-10.7099137209</v>
+      </c>
+      <c r="R89">
+        <v>6.692307692307692</v>
+      </c>
+      <c r="S89">
+        <v>0.4505903586741974</v>
+      </c>
+      <c r="T89">
+        <v>8.169762682576581</v>
+      </c>
+      <c r="U89">
+        <v>0.1837</v>
+      </c>
+      <c r="V89">
+        <v>0.07981267115057121</v>
+      </c>
+      <c r="W89">
+        <v>0.1690384123096401</v>
+      </c>
+      <c r="X89" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y89">
+        <v>0.3470116136981357</v>
+      </c>
+      <c r="Z89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>0.88</v>
+      </c>
+      <c r="B90">
+        <v>0.2073841653370325</v>
+      </c>
+      <c r="C90">
+        <v>-81.08882143724439</v>
+      </c>
+      <c r="D90">
+        <v>45.08957856275558</v>
+      </c>
+      <c r="E90">
+        <v>134.0484</v>
+      </c>
+      <c r="F90">
+        <v>136.7784</v>
+      </c>
+      <c r="G90">
+        <v>10.6</v>
+      </c>
+      <c r="H90">
+        <v>152.7</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>10.4</v>
+      </c>
+      <c r="K90">
+        <v>1.78</v>
+      </c>
+      <c r="L90">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M90">
+        <v>25.12619208</v>
+      </c>
+      <c r="N90">
+        <v>-16.50619207999999</v>
+      </c>
+      <c r="O90">
+        <v>-3.796424178399999</v>
+      </c>
+      <c r="P90">
+        <v>-12.7097679016</v>
+      </c>
+      <c r="Q90">
+        <v>-10.9297679016</v>
+      </c>
+      <c r="R90">
+        <v>7.333333333333334</v>
+      </c>
+      <c r="S90">
+        <v>0.4873645552303805</v>
+      </c>
+      <c r="T90">
+        <v>8.850576239457963</v>
+      </c>
+      <c r="U90">
+        <v>0.1837</v>
+      </c>
+      <c r="V90">
+        <v>0.07890570897840564</v>
+      </c>
+      <c r="W90">
+        <v>0.1692050212606669</v>
+      </c>
+      <c r="X90" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y90">
+        <v>0.3430682999061114</v>
+      </c>
+      <c r="Z90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>0.89</v>
+      </c>
+      <c r="B91">
+        <v>0.2091281653370325</v>
+      </c>
+      <c r="C91">
+        <v>-83.03664066352974</v>
+      </c>
+      <c r="D91">
+        <v>44.69605933647026</v>
+      </c>
+      <c r="E91">
+        <v>135.6027</v>
+      </c>
+      <c r="F91">
+        <v>138.3327</v>
+      </c>
+      <c r="G91">
+        <v>10.6</v>
+      </c>
+      <c r="H91">
+        <v>152.7</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>10.4</v>
+      </c>
+      <c r="K91">
+        <v>1.78</v>
+      </c>
+      <c r="L91">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M91">
+        <v>25.41171699</v>
+      </c>
+      <c r="N91">
+        <v>-16.79171699</v>
+      </c>
+      <c r="O91">
+        <v>-3.8620949077</v>
+      </c>
+      <c r="P91">
+        <v>-12.9296220823</v>
+      </c>
+      <c r="Q91">
+        <v>-11.1496220823</v>
+      </c>
+      <c r="R91">
+        <v>8.090909090909092</v>
+      </c>
+      <c r="S91">
+        <v>0.5308249693422333</v>
+      </c>
+      <c r="T91">
+        <v>9.655174079408686</v>
+      </c>
+      <c r="U91">
+        <v>0.1837</v>
+      </c>
+      <c r="V91">
+        <v>0.07801912797864825</v>
+      </c>
+      <c r="W91">
+        <v>0.1693678861903223</v>
+      </c>
+      <c r="X91" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y91">
+        <v>0.3392135999071664</v>
+      </c>
+      <c r="Z91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>0.9</v>
+      </c>
+      <c r="B92">
+        <v>0.2108721653370325</v>
+      </c>
+      <c r="C92">
+        <v>-84.97765044239462</v>
+      </c>
+      <c r="D92">
+        <v>44.30934955760535</v>
+      </c>
+      <c r="E92">
+        <v>137.157</v>
+      </c>
+      <c r="F92">
+        <v>139.887</v>
+      </c>
+      <c r="G92">
+        <v>10.6</v>
+      </c>
+      <c r="H92">
+        <v>152.7</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>10.4</v>
+      </c>
+      <c r="K92">
+        <v>1.78</v>
+      </c>
+      <c r="L92">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M92">
+        <v>25.69724189999999</v>
+      </c>
+      <c r="N92">
+        <v>-17.07724189999999</v>
+      </c>
+      <c r="O92">
+        <v>-3.927765636999998</v>
+      </c>
+      <c r="P92">
+        <v>-13.149476263</v>
+      </c>
+      <c r="Q92">
+        <v>-11.369476263</v>
+      </c>
+      <c r="R92">
+        <v>9.000000000000002</v>
+      </c>
+      <c r="S92">
+        <v>0.5829774662764566</v>
+      </c>
+      <c r="T92">
+        <v>10.62069148734956</v>
+      </c>
+      <c r="U92">
+        <v>0.1837</v>
+      </c>
+      <c r="V92">
+        <v>0.07715224877888552</v>
+      </c>
+      <c r="W92">
+        <v>0.1695271318993187</v>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y92">
+        <v>0.3354445599081979</v>
+      </c>
+      <c r="Z92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>0.91</v>
+      </c>
+      <c r="B93">
+        <v>0.2126161653370325</v>
+      </c>
+      <c r="C93">
+        <v>-86.91202600353049</v>
+      </c>
+      <c r="D93">
+        <v>43.9292739964695</v>
+      </c>
+      <c r="E93">
+        <v>138.7113</v>
+      </c>
+      <c r="F93">
+        <v>141.4413</v>
+      </c>
+      <c r="G93">
+        <v>10.6</v>
+      </c>
+      <c r="H93">
+        <v>152.7</v>
+      </c>
+      <c r="I93">
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>10.4</v>
+      </c>
+      <c r="K93">
+        <v>1.78</v>
+      </c>
+      <c r="L93">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M93">
+        <v>25.98276681</v>
+      </c>
+      <c r="N93">
+        <v>-17.36276681</v>
+      </c>
+      <c r="O93">
+        <v>-3.993436366299999</v>
+      </c>
+      <c r="P93">
+        <v>-13.3693304437</v>
+      </c>
+      <c r="Q93">
+        <v>-11.5893304437</v>
+      </c>
+      <c r="R93">
+        <v>10.11111111111111</v>
+      </c>
+      <c r="S93">
+        <v>0.6467194069738409</v>
+      </c>
+      <c r="T93">
+        <v>11.80076831927729</v>
+      </c>
+      <c r="U93">
+        <v>0.1837</v>
+      </c>
+      <c r="V93">
+        <v>0.07630442186922742</v>
+      </c>
+      <c r="W93">
+        <v>0.1696828777026229</v>
+      </c>
+      <c r="X93" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y93">
+        <v>0.3317583559531627</v>
+      </c>
+      <c r="Z93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>0.92</v>
+      </c>
+      <c r="B94">
+        <v>0.2143601653370325</v>
+      </c>
+      <c r="C94">
+        <v>-88.83993661544005</v>
+      </c>
+      <c r="D94">
+        <v>43.55566338455994</v>
+      </c>
+      <c r="E94">
+        <v>140.2656</v>
+      </c>
+      <c r="F94">
+        <v>142.9956</v>
+      </c>
+      <c r="G94">
+        <v>10.6</v>
+      </c>
+      <c r="H94">
+        <v>152.7</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>10.4</v>
+      </c>
+      <c r="K94">
+        <v>1.78</v>
+      </c>
+      <c r="L94">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M94">
+        <v>26.26829172</v>
+      </c>
+      <c r="N94">
+        <v>-17.64829172</v>
+      </c>
+      <c r="O94">
+        <v>-4.0591070956</v>
+      </c>
+      <c r="P94">
+        <v>-13.5891846244</v>
+      </c>
+      <c r="Q94">
+        <v>-11.8091846244</v>
+      </c>
+      <c r="R94">
+        <v>11.50000000000001</v>
+      </c>
+      <c r="S94">
+        <v>0.7263968328455712</v>
+      </c>
+      <c r="T94">
+        <v>13.27586435918695</v>
+      </c>
+      <c r="U94">
+        <v>0.1837</v>
+      </c>
+      <c r="V94">
+        <v>0.07547502597934451</v>
+      </c>
+      <c r="W94">
+        <v>0.1698352377275944</v>
+      </c>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y94">
+        <v>0.3281522868667153</v>
+      </c>
+      <c r="Z94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>0.93</v>
+      </c>
+      <c r="B95">
+        <v>0.2161041653370326</v>
+      </c>
+      <c r="C95">
+        <v>-90.76154583679387</v>
+      </c>
+      <c r="D95">
+        <v>43.18835416320611</v>
+      </c>
+      <c r="E95">
+        <v>141.8199</v>
+      </c>
+      <c r="F95">
+        <v>144.5499</v>
+      </c>
+      <c r="G95">
+        <v>10.6</v>
+      </c>
+      <c r="H95">
+        <v>152.7</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>10.4</v>
+      </c>
+      <c r="K95">
+        <v>1.78</v>
+      </c>
+      <c r="L95">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M95">
+        <v>26.55381663</v>
+      </c>
+      <c r="N95">
+        <v>-17.93381663</v>
+      </c>
+      <c r="O95">
+        <v>-4.124777824899999</v>
+      </c>
+      <c r="P95">
+        <v>-13.8090388051</v>
+      </c>
+      <c r="Q95">
+        <v>-12.0290388051</v>
+      </c>
+      <c r="R95">
+        <v>13.2857142857143</v>
+      </c>
+      <c r="S95">
+        <v>0.8288392375377958</v>
+      </c>
+      <c r="T95">
+        <v>15.17241641049938</v>
+      </c>
+      <c r="U95">
+        <v>0.1837</v>
+      </c>
+      <c r="V95">
+        <v>0.07466346656021178</v>
+      </c>
+      <c r="W95">
+        <v>0.1699843211928891</v>
+      </c>
+      <c r="X95" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y95">
+        <v>0.3246237676530948</v>
+      </c>
+      <c r="Z95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>0.9400000000000001</v>
+      </c>
+      <c r="B96">
+        <v>0.2178481653370325</v>
+      </c>
+      <c r="C96">
+        <v>-92.67701175517492</v>
+      </c>
+      <c r="D96">
+        <v>42.82718824482507</v>
+      </c>
+      <c r="E96">
+        <v>143.3742</v>
+      </c>
+      <c r="F96">
+        <v>146.1042</v>
+      </c>
+      <c r="G96">
+        <v>10.6</v>
+      </c>
+      <c r="H96">
+        <v>152.7</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>10.4</v>
+      </c>
+      <c r="K96">
+        <v>1.78</v>
+      </c>
+      <c r="L96">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M96">
+        <v>26.83934154</v>
+      </c>
+      <c r="N96">
+        <v>-18.21934154</v>
+      </c>
+      <c r="O96">
+        <v>-4.1904485542</v>
+      </c>
+      <c r="P96">
+        <v>-14.0288929858</v>
+      </c>
+      <c r="Q96">
+        <v>-12.2488929858</v>
+      </c>
+      <c r="R96">
+        <v>15.66666666666668</v>
+      </c>
+      <c r="S96">
+        <v>0.9654291104607619</v>
+      </c>
+      <c r="T96">
+        <v>17.70115247891594</v>
+      </c>
+      <c r="U96">
+        <v>0.1837</v>
+      </c>
+      <c r="V96">
+        <v>0.07386917436276272</v>
+      </c>
+      <c r="W96">
+        <v>0.1701302326695605</v>
+      </c>
+      <c r="X96" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y96">
+        <v>0.3211703233163596</v>
+      </c>
+      <c r="Z96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.2195921653370325</v>
+      </c>
+      <c r="C97">
+        <v>-94.58648721394331</v>
+      </c>
+      <c r="D97">
+        <v>42.47201278605669</v>
+      </c>
+      <c r="E97">
+        <v>144.9285</v>
+      </c>
+      <c r="F97">
+        <v>147.6585</v>
+      </c>
+      <c r="G97">
+        <v>10.6</v>
+      </c>
+      <c r="H97">
+        <v>152.7</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>10.4</v>
+      </c>
+      <c r="K97">
+        <v>1.78</v>
+      </c>
+      <c r="L97">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M97">
+        <v>27.12486645</v>
+      </c>
+      <c r="N97">
+        <v>-18.50486645</v>
+      </c>
+      <c r="O97">
+        <v>-4.2561192835</v>
+      </c>
+      <c r="P97">
+        <v>-14.2487471665</v>
+      </c>
+      <c r="Q97">
+        <v>-12.4687471665</v>
+      </c>
+      <c r="R97">
+        <v>19.00000000000003</v>
+      </c>
+      <c r="S97">
+        <v>1.156654932552915</v>
+      </c>
+      <c r="T97">
+        <v>21.24138297469914</v>
+      </c>
+      <c r="U97">
+        <v>0.1837</v>
+      </c>
+      <c r="V97">
+        <v>0.07309160410631257</v>
+      </c>
+      <c r="W97">
+        <v>0.1702730723256704</v>
+      </c>
+      <c r="X97" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y97">
+        <v>0.3177895830709242</v>
+      </c>
+      <c r="Z97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>0.96</v>
+      </c>
+      <c r="B98">
+        <v>0.2213361653370325</v>
+      </c>
+      <c r="C98">
+        <v>-96.49012002790522</v>
+      </c>
+      <c r="D98">
+        <v>42.12267997209477</v>
+      </c>
+      <c r="E98">
+        <v>146.4828</v>
+      </c>
+      <c r="F98">
+        <v>149.2128</v>
+      </c>
+      <c r="G98">
+        <v>10.6</v>
+      </c>
+      <c r="H98">
+        <v>152.7</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>10.4</v>
+      </c>
+      <c r="K98">
+        <v>1.78</v>
+      </c>
+      <c r="L98">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M98">
+        <v>27.41039136</v>
+      </c>
+      <c r="N98">
+        <v>-18.79039136</v>
+      </c>
+      <c r="O98">
+        <v>-4.321790012799999</v>
+      </c>
+      <c r="P98">
+        <v>-14.4686013472</v>
+      </c>
+      <c r="Q98">
+        <v>-12.6886013472</v>
+      </c>
+      <c r="R98">
+        <v>23.99999999999998</v>
+      </c>
+      <c r="S98">
+        <v>1.443493665691141</v>
+      </c>
+      <c r="T98">
+        <v>26.55172871837387</v>
+      </c>
+      <c r="U98">
+        <v>0.1837</v>
+      </c>
+      <c r="V98">
+        <v>0.07233023323020515</v>
+      </c>
+      <c r="W98">
+        <v>0.1704129361556113</v>
+      </c>
+      <c r="X98" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y98">
+        <v>0.3144792749139355</v>
+      </c>
+      <c r="Z98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>0.97</v>
+      </c>
+      <c r="B99">
+        <v>0.2230801653370325</v>
+      </c>
+      <c r="C99">
+        <v>-98.38805318842557</v>
+      </c>
+      <c r="D99">
+        <v>41.7790468115744</v>
+      </c>
+      <c r="E99">
+        <v>148.0371</v>
+      </c>
+      <c r="F99">
+        <v>150.7671</v>
+      </c>
+      <c r="G99">
+        <v>10.6</v>
+      </c>
+      <c r="H99">
+        <v>152.7</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>10.4</v>
+      </c>
+      <c r="K99">
+        <v>1.78</v>
+      </c>
+      <c r="L99">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M99">
+        <v>27.69591626999999</v>
+      </c>
+      <c r="N99">
+        <v>-19.07591626999999</v>
+      </c>
+      <c r="O99">
+        <v>-4.387460742099998</v>
+      </c>
+      <c r="P99">
+        <v>-14.6884555279</v>
+      </c>
+      <c r="Q99">
+        <v>-12.9084555279</v>
+      </c>
+      <c r="R99">
+        <v>32.33333333333331</v>
+      </c>
+      <c r="S99">
+        <v>1.921558220921521</v>
+      </c>
+      <c r="T99">
+        <v>35.40230495783182</v>
+      </c>
+      <c r="U99">
+        <v>0.1837</v>
+      </c>
+      <c r="V99">
+        <v>0.07158456072267728</v>
+      </c>
+      <c r="W99">
+        <v>0.1705499161952442</v>
+      </c>
+      <c r="X99" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y99">
+        <v>0.3112372205333794</v>
+      </c>
+      <c r="Z99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>0.98</v>
+      </c>
+      <c r="B100">
+        <v>0.2248241653370325</v>
+      </c>
+      <c r="C100">
+        <v>-100.280425058582</v>
+      </c>
+      <c r="D100">
+        <v>41.440974941418</v>
+      </c>
+      <c r="E100">
+        <v>149.5914</v>
+      </c>
+      <c r="F100">
+        <v>152.3214</v>
+      </c>
+      <c r="G100">
+        <v>10.6</v>
+      </c>
+      <c r="H100">
+        <v>152.7</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>10.4</v>
+      </c>
+      <c r="K100">
+        <v>1.78</v>
+      </c>
+      <c r="L100">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M100">
+        <v>27.98144118</v>
+      </c>
+      <c r="N100">
+        <v>-19.36144118</v>
+      </c>
+      <c r="O100">
+        <v>-4.453131471399999</v>
+      </c>
+      <c r="P100">
+        <v>-14.9083097086</v>
+      </c>
+      <c r="Q100">
+        <v>-13.1283097086</v>
+      </c>
+      <c r="R100">
+        <v>48.99999999999996</v>
+      </c>
+      <c r="S100">
+        <v>2.877687331382281</v>
+      </c>
+      <c r="T100">
+        <v>53.10345743674773</v>
+      </c>
+      <c r="U100">
+        <v>0.1837</v>
+      </c>
+      <c r="V100">
+        <v>0.07085410602142546</v>
+      </c>
+      <c r="W100">
+        <v>0.1706841007238641</v>
+      </c>
+      <c r="X100" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y100">
+        <v>0.3080613305279368</v>
+      </c>
+      <c r="Z100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>0.99</v>
+      </c>
+      <c r="B101">
+        <v>0.2265681653370326</v>
+      </c>
+      <c r="C101">
+        <v>-102.1673695589197</v>
+      </c>
+      <c r="D101">
+        <v>41.10833044108026</v>
+      </c>
+      <c r="E101">
+        <v>151.1457</v>
+      </c>
+      <c r="F101">
+        <v>153.8757</v>
+      </c>
+      <c r="G101">
+        <v>10.6</v>
+      </c>
+      <c r="H101">
+        <v>152.7</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>10.4</v>
+      </c>
+      <c r="K101">
+        <v>1.78</v>
+      </c>
+      <c r="L101">
+        <v>8.620000000000001</v>
+      </c>
+      <c r="M101">
+        <v>28.26696608999999</v>
+      </c>
+      <c r="N101">
+        <v>-19.64696608999999</v>
+      </c>
+      <c r="O101">
+        <v>-4.518802200699999</v>
+      </c>
+      <c r="P101">
+        <v>-15.12816388929999</v>
+      </c>
+      <c r="Q101">
+        <v>-13.34816388929999</v>
+      </c>
+      <c r="R101">
+        <v>98.99999999999991</v>
+      </c>
+      <c r="S101">
+        <v>5.746074662764562</v>
+      </c>
+      <c r="T101">
+        <v>106.2069148734955</v>
+      </c>
+      <c r="U101">
+        <v>0.1837</v>
+      </c>
+      <c r="V101">
+        <v>0.07013840798080501</v>
+      </c>
+      <c r="W101">
+        <v>0.1708155744539261</v>
+      </c>
+      <c r="X101" t="inlineStr">
+        <is>
+          <t>D2/D</t>
+        </is>
+      </c>
+      <c r="Y101">
+        <v>0.3049495999165436</v>
+      </c>
+      <c r="Z101">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
